--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C653"/>
+  <dimension ref="A1:C676"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8857,6 +8857,305 @@
         <v>31</v>
       </c>
     </row>
+    <row r="654">
+      <c r="A654" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C654">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C655">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C656">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C657">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C659">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C660">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C661">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C662">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C663">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C664">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C665">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C666">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C667">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C668">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C669">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Sunnaas sykehus HF</t>
+        </is>
+      </c>
+      <c r="C670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C671">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C672">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C673">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C674">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C675">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C676">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C714"/>
+  <dimension ref="A1:C737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9650,6 +9650,305 @@
         <v>32</v>
       </c>
     </row>
+    <row r="715">
+      <c r="A715" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C715">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C716">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C718">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C720">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C721">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C723">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C724">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C725">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C726">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C727">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C728">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C729">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C730">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Sunnaas Sykehus HF</t>
+        </is>
+      </c>
+      <c r="C731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C732">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C733">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C734">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C735">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C736">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="2">
+        <v>43929</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C737">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C737"/>
+  <dimension ref="A1:C760"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -9947,6 +9947,305 @@
       </c>
       <c r="C737">
         <v>24</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C738">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C739">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C741">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C743">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C744">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C745">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C746">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C747">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C748">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C749">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C750">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C751">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C752">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C753">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Sunnaas Sykehus HF</t>
+        </is>
+      </c>
+      <c r="C754">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C755">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C756">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C757">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C758">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C759">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C760">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C760"/>
+  <dimension ref="A1:C783"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1678,7 +1678,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -7489,7 +7489,7 @@
         </is>
       </c>
       <c r="C548">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="549">
@@ -10246,6 +10246,305 @@
       </c>
       <c r="C760">
         <v>26</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C761">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C762">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C763">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C764">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C766">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C767">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C768">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C769">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C770">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C771">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C772">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C773">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C774">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C775">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C776">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Sunnaas Sykehus HF</t>
+        </is>
+      </c>
+      <c r="C777">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C778">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C779">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C780">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C781">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C782">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C783">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C783"/>
+  <dimension ref="A1:C806"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10547,6 +10547,305 @@
         <v>21</v>
       </c>
     </row>
+    <row r="784">
+      <c r="A784" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C784">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C785">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C787">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C788">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C789">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C790">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C791">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C792">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C793">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C794">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C795">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C796">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C797">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C798">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C799">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>Sunnaas Sykehus HF</t>
+        </is>
+      </c>
+      <c r="C800">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C801">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C802">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C803">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C804">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C805">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C806">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C806"/>
+  <dimension ref="A1:C829"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10846,6 +10846,305 @@
         <v>20</v>
       </c>
     </row>
+    <row r="807">
+      <c r="A807" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C807">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C808">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C809">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C810">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C811">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C812">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C813">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C814">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C815">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C816">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C817">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C818">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C819">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C820">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C821">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C822">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>Sunnaas Sykehus HF</t>
+        </is>
+      </c>
+      <c r="C823">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C824">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C825">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C826">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C827">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C828">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C829">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -608,7 +608,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C19">
@@ -621,7 +621,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C20">
@@ -907,11 +907,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -920,11 +920,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1219,11 +1219,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1505,11 +1505,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1518,11 +1518,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C111">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C112">
@@ -2103,11 +2103,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -2116,11 +2116,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2402,11 +2402,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -2415,11 +2415,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -2701,11 +2701,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -2714,11 +2714,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -3000,11 +3000,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -3013,11 +3013,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -3299,11 +3299,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C226">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -3312,11 +3312,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -3598,11 +3598,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -3611,11 +3611,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C250">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -3897,11 +3897,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C272">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273">
@@ -3910,11 +3910,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C273">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274">
@@ -4196,11 +4196,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C295">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296">
@@ -4209,11 +4209,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C296">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="297">
@@ -4495,11 +4495,11 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C318">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319">
@@ -4508,11 +4508,11 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C319">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="320">
@@ -4794,11 +4794,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C341">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C342">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="343">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C364">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="365">
@@ -5106,11 +5106,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C365">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366">
@@ -5392,11 +5392,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C387">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="388">
@@ -5405,11 +5405,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C388">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="389">
@@ -5691,11 +5691,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C410">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="411">
@@ -5704,11 +5704,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C411">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="412">
@@ -5990,11 +5990,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C433">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="434">
@@ -6003,11 +6003,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C434">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="435">
@@ -6289,11 +6289,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C456">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="457">
@@ -6302,11 +6302,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C457">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="458">
@@ -6588,11 +6588,11 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C479">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="480">
@@ -6601,11 +6601,11 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C480">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="481">
@@ -6887,11 +6887,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C502">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="503">
@@ -6900,11 +6900,11 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C503">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="504">
@@ -7186,11 +7186,11 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C525">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="526">
@@ -7199,11 +7199,11 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C526">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="527">
@@ -7485,11 +7485,11 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C548">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="549">
@@ -7498,11 +7498,11 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C549">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="550">
@@ -7784,11 +7784,11 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C571">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="572">
@@ -7797,11 +7797,11 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C572">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="573">
@@ -8083,11 +8083,11 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C594">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="595">
@@ -8096,11 +8096,11 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C595">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="596">
@@ -8382,11 +8382,11 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C617">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="618">
@@ -8395,11 +8395,11 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C618">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="619">
@@ -8681,11 +8681,11 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C640">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="641">
@@ -8694,11 +8694,11 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C641">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="642">
@@ -8980,11 +8980,11 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C663">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="664">
@@ -8993,11 +8993,11 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C664">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="665">
@@ -9279,11 +9279,11 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C686">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="687">
@@ -9292,11 +9292,11 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C687">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="688">
@@ -9578,11 +9578,11 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C709">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="710">
@@ -9591,11 +9591,11 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C710">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="711">
@@ -9877,11 +9877,11 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C732">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="733">
@@ -9890,11 +9890,11 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C733">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="734">
@@ -10176,11 +10176,11 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C755">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="756">
@@ -10189,11 +10189,11 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C756">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="757">
@@ -10475,11 +10475,11 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C778">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="779">
@@ -10488,11 +10488,11 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C779">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="780">
@@ -10774,11 +10774,11 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C801">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="802">
@@ -10787,11 +10787,11 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C802">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="803">
@@ -11073,11 +11073,11 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C824">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="825">
@@ -11086,11 +11086,11 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C825">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="826">

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C829"/>
+  <dimension ref="A1:C852"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -608,7 +608,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C19">
@@ -621,7 +621,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C20">
@@ -907,11 +907,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -920,11 +920,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1219,11 +1219,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1505,11 +1505,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1518,11 +1518,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C111">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C112">
@@ -2103,11 +2103,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -2116,11 +2116,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2402,11 +2402,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -2415,11 +2415,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -2701,11 +2701,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -2714,11 +2714,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -3000,11 +3000,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -3013,11 +3013,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -3299,11 +3299,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C226">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -3312,11 +3312,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -3598,11 +3598,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -3611,11 +3611,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C250">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -3897,11 +3897,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C272">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273">
@@ -3910,11 +3910,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C273">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274">
@@ -4196,11 +4196,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C295">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296">
@@ -4209,11 +4209,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C296">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="297">
@@ -4495,11 +4495,11 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C318">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319">
@@ -4508,11 +4508,11 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C319">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="320">
@@ -4794,11 +4794,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C341">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C342">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="343">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C364">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="365">
@@ -5106,11 +5106,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C365">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366">
@@ -5392,11 +5392,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C387">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="388">
@@ -5405,11 +5405,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C388">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="389">
@@ -5691,11 +5691,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C410">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="411">
@@ -5704,11 +5704,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C411">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="412">
@@ -5990,11 +5990,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C433">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="434">
@@ -6003,11 +6003,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C434">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="435">
@@ -6289,11 +6289,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C456">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="457">
@@ -6302,11 +6302,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C457">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="458">
@@ -6588,11 +6588,11 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C479">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="480">
@@ -6601,11 +6601,11 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C480">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="481">
@@ -6887,11 +6887,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C502">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="503">
@@ -6900,11 +6900,11 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C503">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="504">
@@ -7186,11 +7186,11 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C525">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="526">
@@ -7199,11 +7199,11 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C526">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="527">
@@ -7485,11 +7485,11 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C548">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="549">
@@ -7498,11 +7498,11 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C549">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="550">
@@ -7784,11 +7784,11 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C571">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="572">
@@ -7797,11 +7797,11 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C572">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="573">
@@ -8083,11 +8083,11 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C594">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="595">
@@ -8096,11 +8096,11 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C595">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="596">
@@ -8382,11 +8382,11 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C617">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="618">
@@ -8395,11 +8395,11 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C618">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="619">
@@ -8681,11 +8681,11 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C640">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="641">
@@ -8694,11 +8694,11 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C641">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="642">
@@ -8980,11 +8980,11 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C663">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="664">
@@ -8993,11 +8993,11 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C664">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="665">
@@ -9279,11 +9279,11 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C686">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="687">
@@ -9292,11 +9292,11 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C687">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="688">
@@ -9578,11 +9578,11 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C709">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="710">
@@ -9591,11 +9591,11 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C710">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="711">
@@ -9877,11 +9877,11 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C732">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="733">
@@ -9890,11 +9890,11 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C733">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="734">
@@ -10176,11 +10176,11 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C755">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="756">
@@ -10189,11 +10189,11 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C756">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="757">
@@ -10475,11 +10475,11 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C778">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="779">
@@ -10488,11 +10488,11 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C779">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="780">
@@ -10774,11 +10774,11 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C801">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="802">
@@ -10787,11 +10787,11 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C802">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="803">
@@ -11073,11 +11073,11 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C824">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="825">
@@ -11086,11 +11086,11 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C825">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="826">
@@ -11143,6 +11143,305 @@
       </c>
       <c r="C829">
         <v>21</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C830">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C831">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C832">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C833">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C834">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C835">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C836">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C837">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C838">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C839">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C840">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C841">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C842">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C843">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C844">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C845">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>Sunnaas Sykehus HF</t>
+        </is>
+      </c>
+      <c r="C846">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C847">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C848">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C849">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C850">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C851">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C852">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C852"/>
+  <dimension ref="A1:C875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11444,6 +11444,305 @@
         <v>23</v>
       </c>
     </row>
+    <row r="853">
+      <c r="A853" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C853">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C854">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C855">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C856">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C857">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C858">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C859">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C860">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C861">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C862">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C863">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C864">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C865">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C866">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C867">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C868">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>Sunnaas Sykehus HF</t>
+        </is>
+      </c>
+      <c r="C869">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C870">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C871">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C872">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C873">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C874">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C875">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C875"/>
+  <dimension ref="A1:C898"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11743,6 +11743,305 @@
         <v>22</v>
       </c>
     </row>
+    <row r="876">
+      <c r="A876" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C876">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C877">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C878">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C879">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C880">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C881">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C882">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C883">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C884">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C885">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C886">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C887">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C888">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C889">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C890">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C891">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>Sunnaas Sykehus HF</t>
+        </is>
+      </c>
+      <c r="C892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C893">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C894">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C895">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C896">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C897">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C898">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C875"/>
+  <dimension ref="A1:C898"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -608,7 +608,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C19">
@@ -621,7 +621,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C20">
@@ -907,11 +907,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -920,11 +920,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1219,11 +1219,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1505,11 +1505,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1518,11 +1518,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C111">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C112">
@@ -2103,11 +2103,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -2116,11 +2116,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -2402,11 +2402,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -2415,11 +2415,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -2701,11 +2701,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -2714,11 +2714,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -3000,11 +3000,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C203">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -3013,11 +3013,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -3299,11 +3299,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -3312,11 +3312,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C227">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -3598,11 +3598,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C249">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
@@ -3611,11 +3611,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C250">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251">
@@ -3897,11 +3897,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C272">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273">
@@ -3910,11 +3910,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C273">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274">
@@ -4196,11 +4196,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C295">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296">
@@ -4209,11 +4209,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C296">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297">
@@ -4495,11 +4495,11 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C318">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="319">
@@ -4508,11 +4508,11 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C319">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320">
@@ -4794,11 +4794,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C341">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C342">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="343">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C364">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="365">
@@ -5106,11 +5106,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C365">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="366">
@@ -5392,11 +5392,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C387">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="388">
@@ -5405,11 +5405,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C388">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="389">
@@ -5691,11 +5691,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C410">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="411">
@@ -5704,11 +5704,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C411">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="412">
@@ -5990,11 +5990,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C433">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="434">
@@ -6003,11 +6003,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C434">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="435">
@@ -6289,11 +6289,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C456">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="457">
@@ -6302,11 +6302,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C457">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="458">
@@ -6588,11 +6588,11 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C479">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="480">
@@ -6601,11 +6601,11 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C480">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="481">
@@ -6887,11 +6887,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C502">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="503">
@@ -6900,11 +6900,11 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C503">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="504">
@@ -7186,11 +7186,11 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C525">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="526">
@@ -7199,11 +7199,11 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C526">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="527">
@@ -7485,11 +7485,11 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C548">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="549">
@@ -7498,11 +7498,11 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C549">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="550">
@@ -7784,11 +7784,11 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C571">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="572">
@@ -7797,11 +7797,11 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C572">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="573">
@@ -8083,11 +8083,11 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C594">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="595">
@@ -8096,11 +8096,11 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C595">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="596">
@@ -8382,11 +8382,11 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C617">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="618">
@@ -8395,11 +8395,11 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C618">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="619">
@@ -8681,11 +8681,11 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C640">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="641">
@@ -8694,11 +8694,11 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C641">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="642">
@@ -8980,11 +8980,11 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C663">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="664">
@@ -8993,11 +8993,11 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C664">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="665">
@@ -9279,11 +9279,11 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C686">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="687">
@@ -9292,11 +9292,11 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C687">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="688">
@@ -9578,11 +9578,11 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C709">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="710">
@@ -9591,11 +9591,11 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C710">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="711">
@@ -9877,11 +9877,11 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C732">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="733">
@@ -9890,11 +9890,11 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C733">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="734">
@@ -10176,11 +10176,11 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C755">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="756">
@@ -10189,11 +10189,11 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C756">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="757">
@@ -10475,11 +10475,11 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C778">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="779">
@@ -10488,11 +10488,11 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C779">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="780">
@@ -10774,11 +10774,11 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C801">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="802">
@@ -10787,11 +10787,11 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C802">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="803">
@@ -11073,11 +11073,11 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C824">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="825">
@@ -11086,11 +11086,11 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C825">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="826">
@@ -11372,11 +11372,11 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C847">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="848">
@@ -11385,11 +11385,11 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C848">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="849">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C870">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="871">
@@ -11684,11 +11684,11 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C871">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="872">
@@ -11740,6 +11740,305 @@
         </is>
       </c>
       <c r="C875">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C876">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C877">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C878">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C879">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C880">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C881">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C882">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C883">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C884">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C885">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C886">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C887">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C888">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C889">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C890">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C891">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>Sunnaas Sykehus HF</t>
+        </is>
+      </c>
+      <c r="C892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C893">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C894">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C895">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C896">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C897">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C898">
         <v>22</v>
       </c>
     </row>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -608,7 +608,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C19">
@@ -621,7 +621,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C20">
@@ -907,11 +907,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -920,11 +920,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1219,11 +1219,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1505,11 +1505,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1518,11 +1518,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C111">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C112">
@@ -2103,11 +2103,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -2116,11 +2116,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2402,11 +2402,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -2415,11 +2415,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -2701,11 +2701,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -2714,11 +2714,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -3000,11 +3000,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -3013,11 +3013,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -3299,11 +3299,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C226">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -3312,11 +3312,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -3598,11 +3598,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -3611,11 +3611,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C250">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -3897,11 +3897,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C272">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273">
@@ -3910,11 +3910,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C273">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274">
@@ -4196,11 +4196,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C295">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296">
@@ -4209,11 +4209,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C296">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="297">
@@ -4495,11 +4495,11 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C318">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319">
@@ -4508,11 +4508,11 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C319">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="320">
@@ -4794,11 +4794,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C341">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C342">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="343">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C364">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="365">
@@ -5106,11 +5106,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C365">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366">
@@ -5392,11 +5392,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C387">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="388">
@@ -5405,11 +5405,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C388">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="389">
@@ -5691,11 +5691,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C410">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="411">
@@ -5704,11 +5704,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C411">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="412">
@@ -5990,11 +5990,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C433">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="434">
@@ -6003,11 +6003,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C434">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="435">
@@ -6289,11 +6289,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C456">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="457">
@@ -6302,11 +6302,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C457">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="458">
@@ -6588,11 +6588,11 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C479">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="480">
@@ -6601,11 +6601,11 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C480">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="481">
@@ -6887,11 +6887,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C502">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="503">
@@ -6900,11 +6900,11 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C503">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="504">
@@ -7186,11 +7186,11 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C525">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="526">
@@ -7199,11 +7199,11 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C526">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="527">
@@ -7485,11 +7485,11 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C548">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="549">
@@ -7498,11 +7498,11 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C549">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="550">
@@ -7784,11 +7784,11 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C571">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="572">
@@ -7797,11 +7797,11 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C572">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="573">
@@ -8083,11 +8083,11 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C594">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="595">
@@ -8096,11 +8096,11 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C595">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="596">
@@ -8382,11 +8382,11 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C617">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="618">
@@ -8395,11 +8395,11 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C618">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="619">
@@ -8681,11 +8681,11 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C640">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="641">
@@ -8694,11 +8694,11 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C641">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="642">
@@ -8980,11 +8980,11 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C663">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="664">
@@ -8993,11 +8993,11 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C664">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="665">
@@ -9279,11 +9279,11 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C686">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="687">
@@ -9292,11 +9292,11 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C687">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="688">
@@ -9578,11 +9578,11 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C709">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="710">
@@ -9591,11 +9591,11 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C710">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="711">
@@ -9877,11 +9877,11 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C732">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="733">
@@ -9890,11 +9890,11 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C733">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="734">
@@ -10176,11 +10176,11 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C755">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="756">
@@ -10189,11 +10189,11 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C756">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="757">
@@ -10475,11 +10475,11 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C778">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="779">
@@ -10488,11 +10488,11 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C779">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="780">
@@ -10774,11 +10774,11 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C801">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="802">
@@ -10787,11 +10787,11 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C802">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="803">
@@ -11073,11 +11073,11 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C824">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="825">
@@ -11086,11 +11086,11 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C825">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="826">
@@ -11372,11 +11372,11 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C847">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="848">
@@ -11385,11 +11385,11 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C848">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="849">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C870">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="871">
@@ -11684,11 +11684,11 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C871">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="872">
@@ -11970,11 +11970,11 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C893">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="894">
@@ -11983,11 +11983,11 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C894">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="895">

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C898"/>
+  <dimension ref="A1:C921"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12042,6 +12042,305 @@
         <v>22</v>
       </c>
     </row>
+    <row r="899">
+      <c r="A899" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C899">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C900">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C901">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C902">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C903">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C904">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C905">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C906">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C907">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C908">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C909">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C910">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C911">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C912">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C913">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C914">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>Sunnaas Sykehus HF</t>
+        </is>
+      </c>
+      <c r="C915">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C916">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C917">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C918">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C919">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C920">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C921">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C921"/>
+  <dimension ref="A1:C944"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12341,6 +12341,305 @@
         <v>18</v>
       </c>
     </row>
+    <row r="922">
+      <c r="A922" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C922">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C923">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C924">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C925">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C926">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C927">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C928">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C929">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C930">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C931">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C932">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C933">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C934">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C935">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C936">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C937">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>Sunnaas Sykehus HF</t>
+        </is>
+      </c>
+      <c r="C938">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C939">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C940">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C941">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C942">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C943">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C944">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C944"/>
+  <dimension ref="A1:C967"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12640,6 +12640,305 @@
         <v>19</v>
       </c>
     </row>
+    <row r="945">
+      <c r="A945" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C945">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C946">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C947">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C948">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C949">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C950">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C951">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C952">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C953">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C954">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C955">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C956">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C957">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C958">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C959">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C960">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>Sunnaas Sykehus HF</t>
+        </is>
+      </c>
+      <c r="C961">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C962">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C963">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C964">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C965">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C966">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C967">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C967"/>
+  <dimension ref="A1:C990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12939,6 +12939,305 @@
         <v>16</v>
       </c>
     </row>
+    <row r="968">
+      <c r="A968" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C968">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C969">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C970">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C971">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C972">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C973">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C974">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C975">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C976">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C977">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C978">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C979">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C980">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C981">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C982">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C983">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>Sunnaas Sykehus HF</t>
+        </is>
+      </c>
+      <c r="C984">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C985">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C986">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C987">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C988">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C989">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="2">
+        <v>43940</v>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C990">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C990"/>
+  <dimension ref="A1:C1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13238,6 +13238,305 @@
         <v>16</v>
       </c>
     </row>
+    <row r="991">
+      <c r="A991" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C991">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C992">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C993">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C994">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C995">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C996">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C997">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C998">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C999">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1000">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1001">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C1002">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1003">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1004">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1005">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1006">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>Sunnaas Sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1007">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1008">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1009">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1010">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1011">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1012">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1013">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1013"/>
+  <dimension ref="A1:C1036"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13537,6 +13537,305 @@
         <v>14</v>
       </c>
     </row>
+    <row r="1014">
+      <c r="A1014" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1014">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C1015">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1016">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C1017">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1018">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C1019">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1020">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1021">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1022">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1023">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1024">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C1025">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1026">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1027">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1028">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1029">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>Sunnaas Sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1030">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1031">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1032">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1033">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1034">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1035">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1036">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1036"/>
+  <dimension ref="A1:C1059"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13836,6 +13836,305 @@
         <v>13</v>
       </c>
     </row>
+    <row r="1037">
+      <c r="A1037" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1037">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C1038">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1039">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C1040">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1041">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C1042">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1043">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1044">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1045">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1046">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1047">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C1048">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1049">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1050">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1051">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1052">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>Sunnaas Sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1053">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1054">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1055">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1056">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1057">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1058">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1059">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1059"/>
+  <dimension ref="A1:C1082"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14135,6 +14135,305 @@
         <v>11</v>
       </c>
     </row>
+    <row r="1060">
+      <c r="A1060" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1060">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C1061">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1062">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C1063">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1064">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C1065">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1066">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1067">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1068">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1069">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1070">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C1071">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1072">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1073">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1074">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1075">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>Sunnaas Sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1076">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1077">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1078">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1079">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1080">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1081">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="2">
+        <v>43944</v>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1082">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1082"/>
+  <dimension ref="A1:C1105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14434,6 +14434,305 @@
         <v>10</v>
       </c>
     </row>
+    <row r="1083">
+      <c r="A1083" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1083">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C1084">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1085">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C1086">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1087">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C1088">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1089">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1090">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1091">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1092">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1093">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C1094">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1095">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1096">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1097">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1098">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>Sunnaas Sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1099">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="2">
+        <v>43945</v>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1105">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1105"/>
+  <dimension ref="A1:C1128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14733,6 +14733,305 @@
         <v>12</v>
       </c>
     </row>
+    <row r="1106">
+      <c r="A1106" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1106">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C1107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C1109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C1111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C1117">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1119">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>Sunnaas Sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="2">
+        <v>43946</v>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1128">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1128"/>
+  <dimension ref="A1:C1151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15032,6 +15032,305 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1129">
+      <c r="A1129" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1129">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C1130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C1132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C1134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C1140">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1142">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>Sunnaas Sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1148">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1150">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2">
+        <v>43947</v>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1151">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1151"/>
+  <dimension ref="A1:C1174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -608,7 +608,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C19">
@@ -621,7 +621,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C20">
@@ -907,11 +907,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -920,11 +920,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1219,11 +1219,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1505,11 +1505,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1518,11 +1518,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C111">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C112">
@@ -2103,11 +2103,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -2116,11 +2116,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -2402,11 +2402,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -2415,11 +2415,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -2701,11 +2701,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -2714,11 +2714,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
@@ -3000,11 +3000,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C203">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -3013,11 +3013,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -3299,11 +3299,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -3312,11 +3312,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C227">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -3598,11 +3598,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C249">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
@@ -3611,11 +3611,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C250">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251">
@@ -3897,11 +3897,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C272">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273">
@@ -3910,11 +3910,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C273">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274">
@@ -4196,11 +4196,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C295">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296">
@@ -4209,11 +4209,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C296">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297">
@@ -4495,11 +4495,11 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C318">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="319">
@@ -4508,11 +4508,11 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C319">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320">
@@ -4794,11 +4794,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C341">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C342">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="343">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C364">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="365">
@@ -5106,11 +5106,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C365">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="366">
@@ -5392,11 +5392,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C387">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="388">
@@ -5405,11 +5405,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C388">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="389">
@@ -5691,11 +5691,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C410">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="411">
@@ -5704,11 +5704,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C411">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="412">
@@ -5990,11 +5990,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C433">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="434">
@@ -6003,11 +6003,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C434">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="435">
@@ -6289,11 +6289,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C456">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="457">
@@ -6302,11 +6302,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C457">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="458">
@@ -6588,11 +6588,11 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C479">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="480">
@@ -6601,11 +6601,11 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C480">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="481">
@@ -6887,11 +6887,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C502">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="503">
@@ -6900,11 +6900,11 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C503">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="504">
@@ -7186,11 +7186,11 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C525">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="526">
@@ -7199,11 +7199,11 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C526">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="527">
@@ -7485,11 +7485,11 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C548">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="549">
@@ -7498,11 +7498,11 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C549">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="550">
@@ -7784,11 +7784,11 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C571">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="572">
@@ -7797,11 +7797,11 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C572">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="573">
@@ -8083,11 +8083,11 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C594">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="595">
@@ -8096,11 +8096,11 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C595">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="596">
@@ -8382,11 +8382,11 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C617">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="618">
@@ -8395,11 +8395,11 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C618">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="619">
@@ -8681,11 +8681,11 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C640">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="641">
@@ -8694,11 +8694,11 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C641">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="642">
@@ -8980,11 +8980,11 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C663">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="664">
@@ -8993,11 +8993,11 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C664">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="665">
@@ -9279,11 +9279,11 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C686">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="687">
@@ -9292,11 +9292,11 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C687">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="688">
@@ -9578,11 +9578,11 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C709">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="710">
@@ -9591,11 +9591,11 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C710">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="711">
@@ -9877,11 +9877,11 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C732">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="733">
@@ -9890,11 +9890,11 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C733">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="734">
@@ -10176,11 +10176,11 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C755">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="756">
@@ -10189,11 +10189,11 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C756">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="757">
@@ -10475,11 +10475,11 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C778">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="779">
@@ -10488,11 +10488,11 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C779">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="780">
@@ -10774,11 +10774,11 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C801">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="802">
@@ -10787,11 +10787,11 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C802">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="803">
@@ -11073,11 +11073,11 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C824">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="825">
@@ -11086,11 +11086,11 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C825">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="826">
@@ -11372,11 +11372,11 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C847">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="848">
@@ -11385,11 +11385,11 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C848">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="849">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C870">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="871">
@@ -11684,11 +11684,11 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C871">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="872">
@@ -11970,11 +11970,11 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C893">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="894">
@@ -11983,11 +11983,11 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C894">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="895">
@@ -12269,11 +12269,11 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C916">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="917">
@@ -12282,11 +12282,11 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C917">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="918">
@@ -12568,11 +12568,11 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C939">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="940">
@@ -12581,11 +12581,11 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C940">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="941">
@@ -12867,11 +12867,11 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C962">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="963">
@@ -12880,11 +12880,11 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C963">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="964">
@@ -13166,11 +13166,11 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C985">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="986">
@@ -13179,11 +13179,11 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C986">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="987">
@@ -13465,11 +13465,11 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1008">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1009">
@@ -13478,11 +13478,11 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1009">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1010">
@@ -13764,11 +13764,11 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1031">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1032">
@@ -13777,11 +13777,11 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1032">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1033">
@@ -14063,11 +14063,11 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1054">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1055">
@@ -14076,11 +14076,11 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1055">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1056">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1077">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1078">
@@ -14375,11 +14375,11 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1078">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1079">
@@ -14661,11 +14661,11 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1100">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1101">
@@ -14674,11 +14674,11 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1101">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1102">
@@ -14960,7 +14960,7 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1123">
@@ -14973,7 +14973,7 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1124">
@@ -15259,7 +15259,7 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1146">
@@ -15272,7 +15272,7 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1147">
@@ -15329,6 +15329,305 @@
       </c>
       <c r="C1151">
         <v>9</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1152">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>Diakonhjemmet Sykehus</t>
+        </is>
+      </c>
+      <c r="C1153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>Haraldsplass Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C1155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF</t>
+        </is>
+      </c>
+      <c r="C1157">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>Lovisenberg Diakonale Sykehus</t>
+        </is>
+      </c>
+      <c r="C1163">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1165">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>Sunnaas Sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1170">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1174">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -608,7 +608,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C19">
@@ -621,7 +621,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C20">
@@ -907,11 +907,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -920,11 +920,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1219,11 +1219,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1505,11 +1505,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1518,11 +1518,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C111">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C112">
@@ -2103,11 +2103,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -2116,11 +2116,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2402,11 +2402,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -2415,11 +2415,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -2701,11 +2701,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -2714,11 +2714,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -3000,11 +3000,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -3013,11 +3013,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -3299,11 +3299,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C226">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -3312,11 +3312,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -3598,11 +3598,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C249">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -3611,11 +3611,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C250">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
@@ -3897,11 +3897,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C272">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273">
@@ -3910,11 +3910,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C273">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274">
@@ -4196,11 +4196,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C295">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296">
@@ -4209,11 +4209,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C296">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="297">
@@ -4495,11 +4495,11 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C318">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319">
@@ -4508,11 +4508,11 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C319">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="320">
@@ -4794,11 +4794,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C341">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C342">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="343">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C364">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="365">
@@ -5106,11 +5106,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C365">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366">
@@ -5392,11 +5392,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C387">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="388">
@@ -5405,11 +5405,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C388">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="389">
@@ -5691,11 +5691,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C410">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="411">
@@ -5704,11 +5704,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C411">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="412">
@@ -5990,11 +5990,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C433">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="434">
@@ -6003,11 +6003,11 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C434">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="435">
@@ -6289,11 +6289,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C456">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="457">
@@ -6302,11 +6302,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C457">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="458">
@@ -6588,11 +6588,11 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C479">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="480">
@@ -6601,11 +6601,11 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C480">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="481">
@@ -6887,11 +6887,11 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C502">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="503">
@@ -6900,11 +6900,11 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C503">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="504">
@@ -7186,11 +7186,11 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C525">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="526">
@@ -7199,11 +7199,11 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C526">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="527">
@@ -7485,11 +7485,11 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C548">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="549">
@@ -7498,11 +7498,11 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C549">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="550">
@@ -7784,11 +7784,11 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C571">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="572">
@@ -7797,11 +7797,11 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C572">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="573">
@@ -8083,11 +8083,11 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C594">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="595">
@@ -8096,11 +8096,11 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C595">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="596">
@@ -8382,11 +8382,11 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C617">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="618">
@@ -8395,11 +8395,11 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C618">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="619">
@@ -8681,11 +8681,11 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C640">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="641">
@@ -8694,11 +8694,11 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C641">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="642">
@@ -8980,11 +8980,11 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C663">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="664">
@@ -8993,11 +8993,11 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C664">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="665">
@@ -9279,11 +9279,11 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C686">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="687">
@@ -9292,11 +9292,11 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C687">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="688">
@@ -9578,11 +9578,11 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C709">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="710">
@@ -9591,11 +9591,11 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C710">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="711">
@@ -9877,11 +9877,11 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C732">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="733">
@@ -9890,11 +9890,11 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C733">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="734">
@@ -10176,11 +10176,11 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C755">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="756">
@@ -10189,11 +10189,11 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C756">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="757">
@@ -10475,11 +10475,11 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C778">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="779">
@@ -10488,11 +10488,11 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C779">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="780">
@@ -10774,11 +10774,11 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C801">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="802">
@@ -10787,11 +10787,11 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C802">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="803">
@@ -11073,11 +11073,11 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C824">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="825">
@@ -11086,11 +11086,11 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C825">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="826">
@@ -11372,11 +11372,11 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C847">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="848">
@@ -11385,11 +11385,11 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C848">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="849">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C870">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="871">
@@ -11684,11 +11684,11 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C871">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="872">
@@ -11970,11 +11970,11 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C893">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="894">
@@ -11983,11 +11983,11 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C894">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="895">
@@ -12269,11 +12269,11 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C916">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="917">
@@ -12282,11 +12282,11 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C917">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="918">
@@ -12568,11 +12568,11 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C939">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="940">
@@ -12581,11 +12581,11 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C940">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="941">
@@ -12867,11 +12867,11 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C962">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="963">
@@ -12880,11 +12880,11 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C963">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="964">
@@ -13166,11 +13166,11 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C985">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="986">
@@ -13179,11 +13179,11 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C986">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="987">
@@ -13465,11 +13465,11 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1008">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1009">
@@ -13478,11 +13478,11 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1009">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1010">
@@ -13764,11 +13764,11 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1031">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1032">
@@ -13777,11 +13777,11 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1032">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1033">
@@ -14063,11 +14063,11 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1054">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1055">
@@ -14076,11 +14076,11 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1055">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1056">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1077">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1078">
@@ -14375,11 +14375,11 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1078">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1079">
@@ -14661,11 +14661,11 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1100">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1101">
@@ -14674,11 +14674,11 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1101">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1102">
@@ -14960,7 +14960,7 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1123">
@@ -14973,7 +14973,7 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1124">
@@ -15259,7 +15259,7 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1146">
@@ -15272,7 +15272,7 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1147">
@@ -15558,11 +15558,11 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1169">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1170">
@@ -15571,11 +15571,11 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1170">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1171">

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1041"/>
+  <dimension ref="A1:C1061"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -569,7 +569,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C16">
@@ -582,7 +582,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C17">
@@ -829,11 +829,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -842,11 +842,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1089,11 +1089,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1102,11 +1102,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1349,11 +1349,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1362,11 +1362,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C96">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C97">
@@ -1869,11 +1869,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -1882,11 +1882,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2129,11 +2129,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -2142,11 +2142,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -2389,11 +2389,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -2402,11 +2402,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -2649,11 +2649,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -2662,11 +2662,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -2909,11 +2909,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C196">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2922,11 +2922,11 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -3182,11 +3182,11 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C217">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -3429,11 +3429,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C236">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237">
@@ -3442,11 +3442,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C237">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238">
@@ -3689,11 +3689,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C256">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257">
@@ -3702,11 +3702,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C257">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258">
@@ -3949,11 +3949,11 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C276">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277">
@@ -3962,11 +3962,11 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C277">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278">
@@ -4209,11 +4209,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C296">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297">
@@ -4222,11 +4222,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C297">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298">
@@ -4469,11 +4469,11 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C316">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="317">
@@ -4482,11 +4482,11 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C317">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="318">
@@ -4729,11 +4729,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C336">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="337">
@@ -4742,11 +4742,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C337">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="338">
@@ -4989,11 +4989,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C356">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="357">
@@ -5002,11 +5002,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C357">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="358">
@@ -5249,11 +5249,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C376">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="377">
@@ -5262,11 +5262,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C377">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="378">
@@ -5509,11 +5509,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C396">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="397">
@@ -5522,11 +5522,11 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C397">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="398">
@@ -5769,11 +5769,11 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C416">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="417">
@@ -5782,11 +5782,11 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C417">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="418">
@@ -6029,11 +6029,11 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C436">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="437">
@@ -6042,11 +6042,11 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C437">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="438">
@@ -6289,11 +6289,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C456">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="457">
@@ -6302,11 +6302,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C457">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="458">
@@ -6549,11 +6549,11 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C476">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="477">
@@ -6562,11 +6562,11 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C477">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="478">
@@ -6809,11 +6809,11 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C496">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="497">
@@ -6822,11 +6822,11 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C497">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="498">
@@ -7069,11 +7069,11 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C516">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="517">
@@ -7082,11 +7082,11 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C517">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="518">
@@ -7329,11 +7329,11 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C536">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="537">
@@ -7342,11 +7342,11 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C537">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="538">
@@ -7589,11 +7589,11 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C556">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="557">
@@ -7602,11 +7602,11 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C557">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="558">
@@ -7849,11 +7849,11 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C576">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="577">
@@ -7862,11 +7862,11 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C577">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="578">
@@ -8109,11 +8109,11 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C596">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="597">
@@ -8122,11 +8122,11 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C597">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="598">
@@ -8369,11 +8369,11 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C616">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="617">
@@ -8382,11 +8382,11 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C617">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="618">
@@ -8629,11 +8629,11 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C636">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="637">
@@ -8642,11 +8642,11 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C637">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="638">
@@ -8889,11 +8889,11 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C656">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="657">
@@ -8902,11 +8902,11 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C657">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="658">
@@ -9149,11 +9149,11 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C676">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="677">
@@ -9162,11 +9162,11 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C677">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="678">
@@ -9409,11 +9409,11 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C696">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="697">
@@ -9422,11 +9422,11 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C697">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="698">
@@ -9669,11 +9669,11 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C716">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="717">
@@ -9682,11 +9682,11 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C717">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="718">
@@ -9929,11 +9929,11 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C736">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="737">
@@ -9942,11 +9942,11 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C737">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="738">
@@ -10189,11 +10189,11 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C756">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="757">
@@ -10202,11 +10202,11 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C757">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="758">
@@ -10449,11 +10449,11 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C776">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="777">
@@ -10462,11 +10462,11 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C777">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="778">
@@ -10709,11 +10709,11 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C796">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="797">
@@ -10722,11 +10722,11 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C797">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="798">
@@ -10969,11 +10969,11 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C816">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="817">
@@ -10982,11 +10982,11 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C817">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="818">
@@ -11229,11 +11229,11 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C836">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="837">
@@ -11242,11 +11242,11 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C837">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="838">
@@ -11489,11 +11489,11 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C856">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="857">
@@ -11502,11 +11502,11 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C857">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="858">
@@ -11749,11 +11749,11 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C876">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="877">
@@ -11762,11 +11762,11 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C877">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="878">
@@ -12009,11 +12009,11 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C896">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="897">
@@ -12022,11 +12022,11 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C897">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="898">
@@ -12269,11 +12269,11 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C916">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="917">
@@ -12282,11 +12282,11 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C917">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="918">
@@ -12529,11 +12529,11 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C936">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="937">
@@ -12542,11 +12542,11 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C937">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="938">
@@ -12789,11 +12789,11 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C956">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="957">
@@ -12802,11 +12802,11 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C957">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="958">
@@ -13049,7 +13049,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C976">
@@ -13062,7 +13062,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C977">
@@ -13309,7 +13309,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C996">
@@ -13322,7 +13322,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C997">
@@ -13569,11 +13569,11 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1016">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1017">
@@ -13582,11 +13582,11 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1017">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1018">
@@ -13829,7 +13829,7 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1036">
@@ -13842,7 +13842,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1037">
@@ -13899,6 +13899,266 @@
       </c>
       <c r="C1041">
         <v>8</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1042">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1043">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1044">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF + Privat med avtale med Helse Vest i Bergen</t>
+        </is>
+      </c>
+      <c r="C1045">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1046">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1047">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1048">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1049">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1050">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1051">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1052">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>Private med avtale med Helse Sør-Øst i Oslo</t>
+        </is>
+      </c>
+      <c r="C1053">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1054">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1055">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1056">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1057">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1058">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1059">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1060">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1061">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1061"/>
+  <dimension ref="A1:C1081"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14161,6 +14161,266 @@
         <v>7</v>
       </c>
     </row>
+    <row r="1062">
+      <c r="A1062" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1062">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1063">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1064">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF + Privat med avtale med Helse Vest i Bergen</t>
+        </is>
+      </c>
+      <c r="C1065">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1066">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1067">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1068">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1069">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1070">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1071">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1072">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>Private med avtale med Helse Sør-Øst i Oslo</t>
+        </is>
+      </c>
+      <c r="C1073">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1074">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1075">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1076">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1077">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1078">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1079">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1080">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="2">
+        <v>43951</v>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1081">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -14340,7 +14340,7 @@
         </is>
       </c>
       <c r="C1075">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076">

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1081"/>
+  <dimension ref="A1:C1101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14421,6 +14421,266 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1082">
+      <c r="A1082" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1082">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1083">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1084">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF + Privat med avtale med Helse Vest i Bergen</t>
+        </is>
+      </c>
+      <c r="C1085">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1086">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1087">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1088">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1089">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1090">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1091">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1092">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>Private med avtale med Helse Sør-Øst i Oslo</t>
+        </is>
+      </c>
+      <c r="C1093">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1094">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1095">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1096">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1097">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1098">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1099">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="2">
+        <v>43952</v>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1101">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1101"/>
+  <dimension ref="A1:C1121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14681,6 +14681,266 @@
         <v>4</v>
       </c>
     </row>
+    <row r="1102">
+      <c r="A1102" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1102">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF + Privat med avtale med Helse Vest i Bergen</t>
+        </is>
+      </c>
+      <c r="C1105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1112">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>Private med avtale med Helse Sør-Øst i Oslo</t>
+        </is>
+      </c>
+      <c r="C1113">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1120">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="2">
+        <v>43953</v>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1121">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -569,7 +569,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C16">
@@ -582,7 +582,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C17">
@@ -829,11 +829,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -842,11 +842,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1089,11 +1089,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1102,11 +1102,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1349,11 +1349,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1362,11 +1362,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C96">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C97">
@@ -1869,11 +1869,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -1882,11 +1882,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -2129,11 +2129,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -2142,11 +2142,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -2389,11 +2389,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -2402,11 +2402,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158">
@@ -2649,11 +2649,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C176">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -2662,11 +2662,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178">
@@ -2909,11 +2909,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -2922,11 +2922,11 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C197">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -3182,11 +3182,11 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -3429,11 +3429,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C236">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237">
@@ -3442,11 +3442,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C237">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238">
@@ -3689,11 +3689,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C256">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257">
@@ -3702,11 +3702,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C257">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258">
@@ -3949,11 +3949,11 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C276">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="277">
@@ -3962,11 +3962,11 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C277">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278">
@@ -4209,11 +4209,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C296">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297">
@@ -4222,11 +4222,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C297">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="298">
@@ -4469,11 +4469,11 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C316">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317">
@@ -4482,11 +4482,11 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C317">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318">
@@ -4729,11 +4729,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C336">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="337">
@@ -4742,11 +4742,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C337">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338">
@@ -4989,11 +4989,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C356">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="357">
@@ -5002,11 +5002,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C357">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="358">
@@ -5249,11 +5249,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C376">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="377">
@@ -5262,11 +5262,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C377">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="378">
@@ -5509,11 +5509,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C396">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="397">
@@ -5522,11 +5522,11 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C397">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="398">
@@ -5769,11 +5769,11 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C416">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="417">
@@ -5782,11 +5782,11 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C417">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="418">
@@ -6029,11 +6029,11 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C436">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="437">
@@ -6042,11 +6042,11 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C437">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="438">
@@ -6289,11 +6289,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C456">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="457">
@@ -6302,11 +6302,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C457">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="458">
@@ -6549,11 +6549,11 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C476">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="477">
@@ -6562,11 +6562,11 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C477">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="478">
@@ -6809,11 +6809,11 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C496">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="497">
@@ -6822,11 +6822,11 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C497">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="498">
@@ -7069,11 +7069,11 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C516">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="517">
@@ -7082,11 +7082,11 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C517">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="518">
@@ -7329,11 +7329,11 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C536">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="537">
@@ -7342,11 +7342,11 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C537">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="538">
@@ -7589,11 +7589,11 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C556">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="557">
@@ -7602,11 +7602,11 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C557">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="558">
@@ -7849,11 +7849,11 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C576">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="577">
@@ -7862,11 +7862,11 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C577">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="578">
@@ -8109,11 +8109,11 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C596">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="597">
@@ -8122,11 +8122,11 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C597">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="598">
@@ -8369,11 +8369,11 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C616">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="617">
@@ -8382,11 +8382,11 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C617">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="618">
@@ -8629,11 +8629,11 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C636">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="637">
@@ -8642,11 +8642,11 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C637">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="638">
@@ -8889,11 +8889,11 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C656">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="657">
@@ -8902,11 +8902,11 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C657">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="658">
@@ -9149,11 +9149,11 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C676">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="677">
@@ -9162,11 +9162,11 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C677">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="678">
@@ -9409,11 +9409,11 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C696">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="697">
@@ -9422,11 +9422,11 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C697">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="698">
@@ -9669,11 +9669,11 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C716">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="717">
@@ -9682,11 +9682,11 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C717">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="718">
@@ -9929,11 +9929,11 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C736">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="737">
@@ -9942,11 +9942,11 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C737">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="738">
@@ -10189,11 +10189,11 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C756">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="757">
@@ -10202,11 +10202,11 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C757">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="758">
@@ -10449,11 +10449,11 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C776">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="777">
@@ -10462,11 +10462,11 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C777">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="778">
@@ -10709,11 +10709,11 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C796">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="797">
@@ -10722,11 +10722,11 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C797">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="798">
@@ -10969,11 +10969,11 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C816">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="817">
@@ -10982,11 +10982,11 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C817">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="818">
@@ -11229,11 +11229,11 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C836">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="837">
@@ -11242,11 +11242,11 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C837">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="838">
@@ -11489,11 +11489,11 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C856">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="857">
@@ -11502,11 +11502,11 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C857">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="858">
@@ -11749,11 +11749,11 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C876">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="877">
@@ -11762,11 +11762,11 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C877">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="878">
@@ -12009,11 +12009,11 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C896">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="897">
@@ -12022,11 +12022,11 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C897">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="898">
@@ -12269,11 +12269,11 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C916">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="917">
@@ -12282,11 +12282,11 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C917">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="918">
@@ -12529,11 +12529,11 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C936">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="937">
@@ -12542,11 +12542,11 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C937">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="938">
@@ -12789,11 +12789,11 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C956">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="957">
@@ -12802,11 +12802,11 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C957">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="958">
@@ -13049,7 +13049,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C976">
@@ -13062,7 +13062,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C977">
@@ -13309,7 +13309,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C996">
@@ -13322,7 +13322,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C997">
@@ -13569,11 +13569,11 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1016">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1017">
@@ -13582,11 +13582,11 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1017">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1018">
@@ -13829,7 +13829,7 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1036">
@@ -13842,7 +13842,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1037">
@@ -14089,11 +14089,11 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1056">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1057">
@@ -14102,11 +14102,11 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1057">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1058">
@@ -14349,11 +14349,11 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1076">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1077">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1077">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1078">
@@ -14609,11 +14609,11 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1096">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1097">
@@ -14622,11 +14622,11 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1097">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1098">
@@ -14869,11 +14869,11 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1116">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1117">
@@ -14882,11 +14882,11 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1117">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1118">

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1121"/>
+  <dimension ref="A1:C1141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -569,7 +569,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C16">
@@ -582,7 +582,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C17">
@@ -829,11 +829,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -842,11 +842,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1089,11 +1089,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1102,11 +1102,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1349,11 +1349,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1362,11 +1362,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C96">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C97">
@@ -1869,11 +1869,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -1882,11 +1882,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2129,11 +2129,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -2142,11 +2142,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -2389,11 +2389,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -2402,11 +2402,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -2649,11 +2649,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -2662,11 +2662,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -2909,11 +2909,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C196">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2922,11 +2922,11 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -3169,11 +3169,11 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -3182,11 +3182,11 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C217">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -3429,11 +3429,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C236">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237">
@@ -3442,11 +3442,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C237">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="238">
@@ -3689,11 +3689,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C256">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257">
@@ -3702,11 +3702,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C257">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258">
@@ -3949,11 +3949,11 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C276">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277">
@@ -3962,11 +3962,11 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C277">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278">
@@ -4209,11 +4209,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C296">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297">
@@ -4222,11 +4222,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C297">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298">
@@ -4469,11 +4469,11 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C316">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="317">
@@ -4482,11 +4482,11 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C317">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="318">
@@ -4729,11 +4729,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C336">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="337">
@@ -4742,11 +4742,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C337">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="338">
@@ -4989,11 +4989,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C356">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="357">
@@ -5002,11 +5002,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C357">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="358">
@@ -5249,11 +5249,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C376">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="377">
@@ -5262,11 +5262,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C377">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="378">
@@ -5509,11 +5509,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C396">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="397">
@@ -5522,11 +5522,11 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C397">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="398">
@@ -5769,11 +5769,11 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C416">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="417">
@@ -5782,11 +5782,11 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C417">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="418">
@@ -6029,11 +6029,11 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C436">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="437">
@@ -6042,11 +6042,11 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C437">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="438">
@@ -6289,11 +6289,11 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C456">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="457">
@@ -6302,11 +6302,11 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C457">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="458">
@@ -6549,11 +6549,11 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C476">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="477">
@@ -6562,11 +6562,11 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C477">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="478">
@@ -6809,11 +6809,11 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C496">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="497">
@@ -6822,11 +6822,11 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C497">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="498">
@@ -7069,11 +7069,11 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C516">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="517">
@@ -7082,11 +7082,11 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C517">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="518">
@@ -7329,11 +7329,11 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C536">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="537">
@@ -7342,11 +7342,11 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C537">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="538">
@@ -7589,11 +7589,11 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C556">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="557">
@@ -7602,11 +7602,11 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C557">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="558">
@@ -7849,11 +7849,11 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C576">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="577">
@@ -7862,11 +7862,11 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C577">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="578">
@@ -8109,11 +8109,11 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C596">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="597">
@@ -8122,11 +8122,11 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C597">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="598">
@@ -8369,11 +8369,11 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C616">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="617">
@@ -8382,11 +8382,11 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C617">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="618">
@@ -8629,11 +8629,11 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C636">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="637">
@@ -8642,11 +8642,11 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C637">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="638">
@@ -8889,11 +8889,11 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C656">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="657">
@@ -8902,11 +8902,11 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C657">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="658">
@@ -9149,11 +9149,11 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C676">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="677">
@@ -9162,11 +9162,11 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C677">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="678">
@@ -9409,11 +9409,11 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C696">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="697">
@@ -9422,11 +9422,11 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C697">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="698">
@@ -9669,11 +9669,11 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C716">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="717">
@@ -9682,11 +9682,11 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C717">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="718">
@@ -9929,11 +9929,11 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C736">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="737">
@@ -9942,11 +9942,11 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C737">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="738">
@@ -10189,11 +10189,11 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C756">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="757">
@@ -10202,11 +10202,11 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C757">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="758">
@@ -10449,11 +10449,11 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C776">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="777">
@@ -10462,11 +10462,11 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C777">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="778">
@@ -10709,11 +10709,11 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C796">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="797">
@@ -10722,11 +10722,11 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C797">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="798">
@@ -10969,11 +10969,11 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C816">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="817">
@@ -10982,11 +10982,11 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C817">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="818">
@@ -11229,11 +11229,11 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C836">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="837">
@@ -11242,11 +11242,11 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C837">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="838">
@@ -11489,11 +11489,11 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C856">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="857">
@@ -11502,11 +11502,11 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C857">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="858">
@@ -11749,11 +11749,11 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C876">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="877">
@@ -11762,11 +11762,11 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C877">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="878">
@@ -12009,11 +12009,11 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C896">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="897">
@@ -12022,11 +12022,11 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C897">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="898">
@@ -12269,11 +12269,11 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C916">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="917">
@@ -12282,11 +12282,11 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C917">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="918">
@@ -12529,11 +12529,11 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C936">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="937">
@@ -12542,11 +12542,11 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C937">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="938">
@@ -12789,11 +12789,11 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C956">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="957">
@@ -12802,11 +12802,11 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C957">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="958">
@@ -13049,7 +13049,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C976">
@@ -13062,7 +13062,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C977">
@@ -13309,7 +13309,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C996">
@@ -13322,7 +13322,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C997">
@@ -13569,11 +13569,11 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1016">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1017">
@@ -13582,11 +13582,11 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1017">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1018">
@@ -13829,7 +13829,7 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1036">
@@ -13842,7 +13842,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1037">
@@ -14089,11 +14089,11 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1056">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1057">
@@ -14102,11 +14102,11 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1057">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1058">
@@ -14349,11 +14349,11 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1076">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1077">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1077">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1078">
@@ -14609,11 +14609,11 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1096">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1097">
@@ -14622,11 +14622,11 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1097">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1098">
@@ -14869,11 +14869,11 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Sykehuset Innlandet HF</t>
+          <t>Sykehuset i Vestfold HF</t>
         </is>
       </c>
       <c r="C1116">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1117">
@@ -14882,11 +14882,11 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Sykehuset i Vestfold HF</t>
+          <t>Sykehuset Innlandet HF</t>
         </is>
       </c>
       <c r="C1117">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1118">
@@ -14939,6 +14939,266 @@
       </c>
       <c r="C1121">
         <v>4</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1122">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF + Privat med avtale med Helse Vest i Bergen</t>
+        </is>
+      </c>
+      <c r="C1125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1132">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>Private med avtale med Helse Sør-Øst i Oslo</t>
+        </is>
+      </c>
+      <c r="C1133">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1137">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1141">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1141"/>
+  <dimension ref="A1:C1161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15201,6 +15201,266 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1142">
+      <c r="A1142" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF + Privat med avtale med Helse Vest i Bergen</t>
+        </is>
+      </c>
+      <c r="C1145">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1152">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>Private med avtale med Helse Sør-Øst i Oslo</t>
+        </is>
+      </c>
+      <c r="C1153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1161">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1161"/>
+  <dimension ref="A1:C1181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15461,6 +15461,266 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1162">
+      <c r="A1162" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF + Privat med avtale med Helse Vest i Bergen</t>
+        </is>
+      </c>
+      <c r="C1165">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1172">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>Private med avtale med Helse Sør-Øst i Oslo</t>
+        </is>
+      </c>
+      <c r="C1173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2">
+        <v>43956</v>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1181">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1181"/>
+  <dimension ref="A1:C1201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15721,6 +15721,266 @@
         <v>4</v>
       </c>
     </row>
+    <row r="1182">
+      <c r="A1182" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF + Privat med avtale med Helse Vest i Bergen</t>
+        </is>
+      </c>
+      <c r="C1185">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1192">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>Private med avtale med Helse Sør-Øst i Oslo</t>
+        </is>
+      </c>
+      <c r="C1193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1200">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="2">
+        <v>43957</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1201">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1201"/>
+  <dimension ref="A1:C1221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15981,6 +15981,266 @@
         <v>3</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1202">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF + Privat med avtale med Helse Vest i Bergen</t>
+        </is>
+      </c>
+      <c r="C1205">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1212">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>Private med avtale med Helse Sør-Øst i Oslo</t>
+        </is>
+      </c>
+      <c r="C1213">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1217">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1220">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1221">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1221"/>
+  <dimension ref="A1:C1241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16241,6 +16241,266 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1222">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF + Privat med avtale med Helse Vest i Bergen</t>
+        </is>
+      </c>
+      <c r="C1225">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1232">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>Private med avtale med Helse Sør-Øst i Oslo</t>
+        </is>
+      </c>
+      <c r="C1233">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1237">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1240">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1241">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1241"/>
+  <dimension ref="A1:C1261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16501,6 +16501,266 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1242">
+      <c r="A1242" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1242">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF + Privat med avtale med Helse Vest i Bergen</t>
+        </is>
+      </c>
+      <c r="C1245">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1252">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>Private med avtale med Helse Sør-Øst i Oslo</t>
+        </is>
+      </c>
+      <c r="C1253">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1257">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="2">
+        <v>43960</v>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1261">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1261"/>
+  <dimension ref="A1:C1281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16761,6 +16761,266 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1262">
+      <c r="A1262" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1262">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF + Privat med avtale med Helse Vest i Bergen</t>
+        </is>
+      </c>
+      <c r="C1265">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1272">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>Private med avtale med Helse Sør-Øst i Oslo</t>
+        </is>
+      </c>
+      <c r="C1273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1277">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1278">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="2">
+        <v>43961</v>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1281">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1281"/>
+  <dimension ref="A1:C1301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17021,6 +17021,266 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1282">
+      <c r="A1282" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1282">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF + Privat med avtale med Helse Vest i Bergen</t>
+        </is>
+      </c>
+      <c r="C1285">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1288">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1292">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>Private med avtale med Helse Sør-Øst i Oslo</t>
+        </is>
+      </c>
+      <c r="C1293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1294">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1297">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1300">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="2">
+        <v>43962</v>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1301">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1301"/>
+  <dimension ref="A1:C1321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17281,6 +17281,266 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1302">
+      <c r="A1302" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1302">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF + Privat med avtale med Helse Vest i Bergen</t>
+        </is>
+      </c>
+      <c r="C1305">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1308">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1312">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>Private med avtale med Helse Sør-Øst i Oslo</t>
+        </is>
+      </c>
+      <c r="C1313">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1316">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1317">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1320">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="2">
+        <v>43963</v>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1321">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1321"/>
+  <dimension ref="A1:C1341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17541,6 +17541,266 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1322">
+      <c r="A1322" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1322">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF + Privat med avtale med Helse Vest i Bergen</t>
+        </is>
+      </c>
+      <c r="C1325">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1328">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1332">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>Private med avtale med Helse Sør-Øst i Oslo</t>
+        </is>
+      </c>
+      <c r="C1333">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1335">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1336">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1337">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1338">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1340">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="2">
+        <v>43964</v>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1341">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1341"/>
+  <dimension ref="A1:C1361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17801,6 +17801,266 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1342">
+      <c r="A1342" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1342">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF + Privat med avtale med Helse Vest i Bergen</t>
+        </is>
+      </c>
+      <c r="C1345">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1352">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>Private med avtale med Helse Sør-Øst i Oslo</t>
+        </is>
+      </c>
+      <c r="C1353">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1355">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1356">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1357">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1360">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="2">
+        <v>43965</v>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1361">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1361"/>
+  <dimension ref="A1:C1381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18061,6 +18061,266 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1362">
+      <c r="A1362" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1362">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF + Privat med avtale med Helse Vest i Bergen</t>
+        </is>
+      </c>
+      <c r="C1365">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1372">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>Private med avtale med Helse Sør-Øst i Oslo</t>
+        </is>
+      </c>
+      <c r="C1373">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1375">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1376">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1377" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1377">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1378" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1380">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B1381" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1381">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1381"/>
+  <dimension ref="A1:C1401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18321,6 +18321,266 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1382">
+      <c r="A1382" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1382">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1383" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1384" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1385" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF + Privat med avtale med Helse Vest i Bergen</t>
+        </is>
+      </c>
+      <c r="C1385">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1386" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1387" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1388" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1389" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1390" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1391" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1392" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1392">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1393" t="inlineStr">
+        <is>
+          <t>Private med avtale med Helse Sør-Øst i Oslo</t>
+        </is>
+      </c>
+      <c r="C1393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1394" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1395" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1395">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1396" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1396">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1397" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1397">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1398" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1399" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1400">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="2">
+        <v>43967</v>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1401">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1401"/>
+  <dimension ref="A1:C1421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18581,6 +18581,266 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1402">
+      <c r="A1402" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1402" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1402">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1403" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1404" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1405" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF + Privat med avtale med Helse Vest i Bergen</t>
+        </is>
+      </c>
+      <c r="C1405">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1406" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1406">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1407" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1408" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1409" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1410" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1411" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1412">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1413" t="inlineStr">
+        <is>
+          <t>Private med avtale med Helse Sør-Øst i Oslo</t>
+        </is>
+      </c>
+      <c r="C1413">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1414" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1414">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1415" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1415">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1416" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1416">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1417" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1417">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1418" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1419" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1420" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1420">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="2">
+        <v>43968</v>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1421">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1421"/>
+  <dimension ref="A1:C1441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18841,6 +18841,266 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1422">
+      <c r="A1422" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1422" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1422">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1423" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1424" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1425" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF + Privat med avtale med Helse Vest i Bergen</t>
+        </is>
+      </c>
+      <c r="C1425">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1426" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1427" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1428" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1430" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1431" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1432" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1432">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>Private med avtale med Helse Sør-Øst i Oslo</t>
+        </is>
+      </c>
+      <c r="C1433">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1434" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1435" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1435">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1436" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1436">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1437" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1437">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1438" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1439" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1440" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1440">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="2">
+        <v>43969</v>
+      </c>
+      <c r="B1441" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1441">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1441"/>
+  <dimension ref="A1:C1461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19101,6 +19101,266 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1442">
+      <c r="A1442" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1442" t="inlineStr">
+        <is>
+          <t>Akershus universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1442">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1443" t="inlineStr">
+        <is>
+          <t>Finnmarkssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1444" t="inlineStr">
+        <is>
+          <t>Helgelandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1445" t="inlineStr">
+        <is>
+          <t>Helse Bergen HF + Privat med avtale med Helse Vest i Bergen</t>
+        </is>
+      </c>
+      <c r="C1445">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1446" t="inlineStr">
+        <is>
+          <t>Helse Fonna HF</t>
+        </is>
+      </c>
+      <c r="C1446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t>Helse Førde HF</t>
+        </is>
+      </c>
+      <c r="C1447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1448" t="inlineStr">
+        <is>
+          <t>Helse Møre og Romsdal</t>
+        </is>
+      </c>
+      <c r="C1448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1449" t="inlineStr">
+        <is>
+          <t>Helse Nord-Trøndelag</t>
+        </is>
+      </c>
+      <c r="C1449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1450" t="inlineStr">
+        <is>
+          <t>Helse Stavanger HF</t>
+        </is>
+      </c>
+      <c r="C1450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1451" t="inlineStr">
+        <is>
+          <t>Nordlandssykehuset HF</t>
+        </is>
+      </c>
+      <c r="C1451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>Oslo universitetssykehus HF</t>
+        </is>
+      </c>
+      <c r="C1452">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1453" t="inlineStr">
+        <is>
+          <t>Private med avtale med Helse Sør-Øst i Oslo</t>
+        </is>
+      </c>
+      <c r="C1453">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1454" t="inlineStr">
+        <is>
+          <t>Sørlandet sykehus HF</t>
+        </is>
+      </c>
+      <c r="C1454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1455" t="inlineStr">
+        <is>
+          <t>St. Olavs hospital</t>
+        </is>
+      </c>
+      <c r="C1455">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1456" t="inlineStr">
+        <is>
+          <t>Sykehuset i Vestfold HF</t>
+        </is>
+      </c>
+      <c r="C1456">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1457" t="inlineStr">
+        <is>
+          <t>Sykehuset Innlandet HF</t>
+        </is>
+      </c>
+      <c r="C1457">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1458" t="inlineStr">
+        <is>
+          <t>Sykehuset Østfold HF</t>
+        </is>
+      </c>
+      <c r="C1458">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1459" t="inlineStr">
+        <is>
+          <t>Sykehuset Telemark HF</t>
+        </is>
+      </c>
+      <c r="C1459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1460" t="inlineStr">
+        <is>
+          <t>Universitetssykehuset Nord-Norge HF</t>
+        </is>
+      </c>
+      <c r="C1460">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B1461" t="inlineStr">
+        <is>
+          <t>Vestre Viken HF</t>
+        </is>
+      </c>
+      <c r="C1461">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -2008,7 +2008,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2021,12 +2021,12 @@
         </is>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2039,12 +2039,12 @@
         </is>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2075,12 +2075,12 @@
         </is>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2093,12 +2093,12 @@
         </is>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2183,12 +2183,12 @@
         </is>
       </c>
       <c r="D101">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2201,12 +2201,12 @@
         </is>
       </c>
       <c r="D102">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -2237,12 +2237,12 @@
         </is>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2255,12 +2255,12 @@
         </is>
       </c>
       <c r="D105">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2291,12 +2291,12 @@
         </is>
       </c>
       <c r="D107">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -2327,12 +2327,12 @@
         </is>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2345,12 +2345,12 @@
         </is>
       </c>
       <c r="D110">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -2363,12 +2363,12 @@
         </is>
       </c>
       <c r="D111">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -2381,12 +2381,12 @@
         </is>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -2435,12 +2435,12 @@
         </is>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -2453,12 +2453,12 @@
         </is>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -4096,7 +4096,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -6526,7 +6526,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
     </row>
     <row r="344">
       <c r="A344" s="2">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="345">
       <c r="A345" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="346">
       <c r="A346" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
     </row>
     <row r="347">
       <c r="A347" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
     </row>
     <row r="440">
       <c r="A440" s="2">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
     </row>
     <row r="441">
       <c r="A441" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
@@ -8303,12 +8303,12 @@
         </is>
       </c>
       <c r="D441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
     </row>
     <row r="443">
       <c r="A443" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
     </row>
     <row r="445">
       <c r="A445" s="2">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
@@ -8375,12 +8375,12 @@
         </is>
       </c>
       <c r="D445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
     </row>
     <row r="447">
       <c r="A447" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -8411,12 +8411,12 @@
         </is>
       </c>
       <c r="D447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
@@ -8429,12 +8429,12 @@
         </is>
       </c>
       <c r="D448">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
@@ -8447,12 +8447,12 @@
         </is>
       </c>
       <c r="D449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
     </row>
     <row r="451">
       <c r="A451" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
     </row>
     <row r="452">
       <c r="A452" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
     </row>
     <row r="453">
       <c r="A453" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
     </row>
     <row r="454">
       <c r="A454" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
     </row>
     <row r="455">
       <c r="A455" s="2">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
     </row>
     <row r="456">
       <c r="A456" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
     </row>
     <row r="457">
       <c r="A457" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
     </row>
     <row r="458">
       <c r="A458" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
     </row>
     <row r="459">
       <c r="A459" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
     </row>
     <row r="460">
       <c r="A460" s="2">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
@@ -8650,7 +8650,7 @@
     </row>
     <row r="461">
       <c r="A461" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
     </row>
     <row r="462">
       <c r="A462" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
     </row>
     <row r="463">
       <c r="A463" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
     </row>
     <row r="464">
       <c r="A464" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
     </row>
     <row r="465">
       <c r="A465" s="2">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
     </row>
     <row r="556">
       <c r="A556" s="2">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -10378,7 +10378,7 @@
     </row>
     <row r="557">
       <c r="A557" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
     </row>
     <row r="558">
       <c r="A558" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
     </row>
     <row r="559">
       <c r="A559" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -10427,12 +10427,12 @@
         </is>
       </c>
       <c r="D559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -10445,12 +10445,12 @@
         </is>
       </c>
       <c r="D560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -10468,7 +10468,7 @@
     </row>
     <row r="562">
       <c r="A562" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
     </row>
     <row r="563">
       <c r="A563" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
     </row>
     <row r="564">
       <c r="A564" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
     </row>
     <row r="565">
       <c r="A565" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
     </row>
     <row r="566">
       <c r="A566" s="2">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
     </row>
     <row r="567">
       <c r="A567" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
     </row>
     <row r="568">
       <c r="A568" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
     </row>
     <row r="569">
       <c r="A569" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
     </row>
     <row r="570">
       <c r="A570" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
     </row>
     <row r="571">
       <c r="A571" s="2">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -10648,7 +10648,7 @@
     </row>
     <row r="572">
       <c r="A572" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
     </row>
     <row r="573">
       <c r="A573" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
     </row>
     <row r="574">
       <c r="A574" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
     </row>
     <row r="575">
       <c r="A575" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -10720,7 +10720,7 @@
     </row>
     <row r="576">
       <c r="A576" s="2">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -10738,7 +10738,7 @@
     </row>
     <row r="577">
       <c r="A577" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
     </row>
     <row r="578">
       <c r="A578" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
     </row>
     <row r="579">
       <c r="A579" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
     </row>
     <row r="580">
       <c r="A580" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
     </row>
     <row r="581">
       <c r="A581" s="2">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
     </row>
     <row r="672">
       <c r="A672" s="2">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
     </row>
     <row r="673">
       <c r="A673" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
     </row>
     <row r="674">
       <c r="A674" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
     </row>
     <row r="675">
       <c r="A675" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
     </row>
     <row r="676">
       <c r="A676" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
     </row>
     <row r="677">
       <c r="A677" s="2">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
     </row>
     <row r="678">
       <c r="A678" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
     </row>
     <row r="679">
       <c r="A679" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
     </row>
     <row r="680">
       <c r="A680" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
     </row>
     <row r="681">
       <c r="A681" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
     </row>
     <row r="682">
       <c r="A682" s="2">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
     </row>
     <row r="683">
       <c r="A683" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
     </row>
     <row r="684">
       <c r="A684" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
     </row>
     <row r="685">
       <c r="A685" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
@@ -12700,7 +12700,7 @@
     </row>
     <row r="686">
       <c r="A686" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
     </row>
     <row r="687">
       <c r="A687" s="2">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
@@ -12736,7 +12736,7 @@
     </row>
     <row r="688">
       <c r="A688" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
     </row>
     <row r="689">
       <c r="A689" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
     </row>
     <row r="690">
       <c r="A690" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
     </row>
     <row r="691">
       <c r="A691" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
     </row>
     <row r="692">
       <c r="A692" s="2">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
     </row>
     <row r="693">
       <c r="A693" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
     </row>
     <row r="694">
       <c r="A694" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
     </row>
     <row r="695">
       <c r="A695" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
@@ -12880,7 +12880,7 @@
     </row>
     <row r="696">
       <c r="A696" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
     </row>
     <row r="697">
       <c r="A697" s="2">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
     </row>
     <row r="788">
       <c r="A788" s="2">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B788" t="inlineStr">
         <is>
@@ -14549,12 +14549,12 @@
         </is>
       </c>
       <c r="D788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B789" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
     </row>
     <row r="790">
       <c r="A790" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B790" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
     </row>
     <row r="791">
       <c r="A791" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B791" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
     </row>
     <row r="792">
       <c r="A792" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B792" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
     </row>
     <row r="793">
       <c r="A793" s="2">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B793" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
     </row>
     <row r="794">
       <c r="A794" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B794" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
     </row>
     <row r="795">
       <c r="A795" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B795" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
     </row>
     <row r="796">
       <c r="A796" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B796" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
     </row>
     <row r="797">
       <c r="A797" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B797" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
     </row>
     <row r="798">
       <c r="A798" s="2">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B798" t="inlineStr">
         <is>
@@ -14734,7 +14734,7 @@
     </row>
     <row r="799">
       <c r="A799" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B799" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
     </row>
     <row r="800">
       <c r="A800" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B800" t="inlineStr">
         <is>
@@ -14770,7 +14770,7 @@
     </row>
     <row r="801">
       <c r="A801" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B801" t="inlineStr">
         <is>
@@ -14788,7 +14788,7 @@
     </row>
     <row r="802">
       <c r="A802" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B802" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
     </row>
     <row r="803">
       <c r="A803" s="2">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B803" t="inlineStr">
         <is>
@@ -14819,12 +14819,12 @@
         </is>
       </c>
       <c r="D803">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B804" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
     </row>
     <row r="805">
       <c r="A805" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B805" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
     </row>
     <row r="806">
       <c r="A806" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B806" t="inlineStr">
         <is>
@@ -14878,7 +14878,7 @@
     </row>
     <row r="807">
       <c r="A807" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B807" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
     </row>
     <row r="808">
       <c r="A808" s="2">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B808" t="inlineStr">
         <is>
@@ -14909,12 +14909,12 @@
         </is>
       </c>
       <c r="D808">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B809" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
     </row>
     <row r="810">
       <c r="A810" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B810" t="inlineStr">
         <is>
@@ -14945,12 +14945,12 @@
         </is>
       </c>
       <c r="D810">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B811" t="inlineStr">
         <is>
@@ -14968,7 +14968,7 @@
     </row>
     <row r="812">
       <c r="A812" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B812" t="inlineStr">
         <is>
@@ -14981,12 +14981,12 @@
         </is>
       </c>
       <c r="D812">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="2">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B813" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
     </row>
     <row r="904">
       <c r="A904" s="2">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B904" t="inlineStr">
         <is>
@@ -16637,12 +16637,12 @@
         </is>
       </c>
       <c r="D904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B905" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
     </row>
     <row r="906">
       <c r="A906" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B906" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
     </row>
     <row r="907">
       <c r="A907" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B907" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
     </row>
     <row r="908">
       <c r="A908" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B908" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
     </row>
     <row r="909">
       <c r="A909" s="2">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B909" t="inlineStr">
         <is>
@@ -16732,7 +16732,7 @@
     </row>
     <row r="910">
       <c r="A910" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B910" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
     </row>
     <row r="911">
       <c r="A911" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B911" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
     </row>
     <row r="912">
       <c r="A912" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B912" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
     </row>
     <row r="913">
       <c r="A913" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B913" t="inlineStr">
         <is>
@@ -16799,12 +16799,12 @@
         </is>
       </c>
       <c r="D913">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="2">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B914" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
     </row>
     <row r="915">
       <c r="A915" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B915" t="inlineStr">
         <is>
@@ -16840,7 +16840,7 @@
     </row>
     <row r="916">
       <c r="A916" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B916" t="inlineStr">
         <is>
@@ -16858,7 +16858,7 @@
     </row>
     <row r="917">
       <c r="A917" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B917" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
     </row>
     <row r="918">
       <c r="A918" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B918" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
     </row>
     <row r="919">
       <c r="A919" s="2">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B919" t="inlineStr">
         <is>
@@ -16912,7 +16912,7 @@
     </row>
     <row r="920">
       <c r="A920" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B920" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
     </row>
     <row r="921">
       <c r="A921" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B921" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
     </row>
     <row r="922">
       <c r="A922" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B922" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
     </row>
     <row r="923">
       <c r="A923" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B923" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
     </row>
     <row r="924">
       <c r="A924" s="2">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B924" t="inlineStr">
         <is>
@@ -17002,7 +17002,7 @@
     </row>
     <row r="925">
       <c r="A925" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B925" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
     </row>
     <row r="926">
       <c r="A926" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B926" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
     </row>
     <row r="927">
       <c r="A927" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B927" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
     </row>
     <row r="928">
       <c r="A928" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B928" t="inlineStr">
         <is>
@@ -17074,7 +17074,7 @@
     </row>
     <row r="929">
       <c r="A929" s="2">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B929" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
     </row>
     <row r="1020">
       <c r="A1020" s="2">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B1020" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
     </row>
     <row r="1021">
       <c r="A1021" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1021" t="inlineStr">
         <is>
@@ -18748,7 +18748,7 @@
     </row>
     <row r="1022">
       <c r="A1022" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1022" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
     </row>
     <row r="1023">
       <c r="A1023" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B1023" t="inlineStr">
         <is>
@@ -18784,7 +18784,7 @@
     </row>
     <row r="1024">
       <c r="A1024" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B1024" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
     </row>
     <row r="1025">
       <c r="A1025" s="2">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B1025" t="inlineStr">
         <is>
@@ -18820,7 +18820,7 @@
     </row>
     <row r="1026">
       <c r="A1026" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B1026" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
     </row>
     <row r="1027">
       <c r="A1027" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B1027" t="inlineStr">
         <is>
@@ -18856,7 +18856,7 @@
     </row>
     <row r="1028">
       <c r="A1028" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B1028" t="inlineStr">
         <is>
@@ -18874,7 +18874,7 @@
     </row>
     <row r="1029">
       <c r="A1029" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B1029" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
     </row>
     <row r="1030">
       <c r="A1030" s="2">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B1030" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
     </row>
     <row r="1031">
       <c r="A1031" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B1031" t="inlineStr">
         <is>
@@ -18928,7 +18928,7 @@
     </row>
     <row r="1032">
       <c r="A1032" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B1032" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
     </row>
     <row r="1033">
       <c r="A1033" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B1033" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
     </row>
     <row r="1034">
       <c r="A1034" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B1034" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
     </row>
     <row r="1035">
       <c r="A1035" s="2">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B1035" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
     </row>
     <row r="1036">
       <c r="A1036" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B1036" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
     </row>
     <row r="1037">
       <c r="A1037" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B1037" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
     </row>
     <row r="1038">
       <c r="A1038" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B1038" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
     </row>
     <row r="1039">
       <c r="A1039" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B1039" t="inlineStr">
         <is>
@@ -19067,12 +19067,12 @@
         </is>
       </c>
       <c r="D1039">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" s="2">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B1040" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
     </row>
     <row r="1041">
       <c r="A1041" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1041" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
     </row>
     <row r="1042">
       <c r="A1042" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B1042" t="inlineStr">
         <is>
@@ -19126,7 +19126,7 @@
     </row>
     <row r="1043">
       <c r="A1043" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B1043" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
     </row>
     <row r="1044">
       <c r="A1044" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B1044" t="inlineStr">
         <is>
@@ -19157,12 +19157,12 @@
         </is>
       </c>
       <c r="D1044">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" s="2">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B1045" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
     </row>
     <row r="1136">
       <c r="A1136" s="2">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
@@ -20818,7 +20818,7 @@
     </row>
     <row r="1137">
       <c r="A1137" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
     </row>
     <row r="1138">
       <c r="A1138" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
     </row>
     <row r="1139">
       <c r="A1139" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
     </row>
     <row r="1140">
       <c r="A1140" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
     </row>
     <row r="1141">
       <c r="A1141" s="2">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
     </row>
     <row r="1142">
       <c r="A1142" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
@@ -20926,7 +20926,7 @@
     </row>
     <row r="1143">
       <c r="A1143" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
     </row>
     <row r="1144">
       <c r="A1144" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
     </row>
     <row r="1145">
       <c r="A1145" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
@@ -20980,7 +20980,7 @@
     </row>
     <row r="1146">
       <c r="A1146" s="2">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
     </row>
     <row r="1147">
       <c r="A1147" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
@@ -21016,7 +21016,7 @@
     </row>
     <row r="1148">
       <c r="A1148" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
     </row>
     <row r="1149">
       <c r="A1149" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B1149" t="inlineStr">
         <is>
@@ -21052,7 +21052,7 @@
     </row>
     <row r="1150">
       <c r="A1150" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
     </row>
     <row r="1151">
       <c r="A1151" s="2">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
     </row>
     <row r="1152">
       <c r="A1152" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
     </row>
     <row r="1153">
       <c r="A1153" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
@@ -21124,7 +21124,7 @@
     </row>
     <row r="1154">
       <c r="A1154" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
     </row>
     <row r="1155">
       <c r="A1155" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
     </row>
     <row r="1156">
       <c r="A1156" s="2">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
     </row>
     <row r="1157">
       <c r="A1157" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
@@ -21196,7 +21196,7 @@
     </row>
     <row r="1158">
       <c r="A1158" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
@@ -21214,7 +21214,7 @@
     </row>
     <row r="1159">
       <c r="A1159" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
     </row>
     <row r="1160">
       <c r="A1160" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
     </row>
     <row r="1161">
       <c r="A1161" s="2">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
     </row>
     <row r="1252">
       <c r="A1252" s="2">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B1252" t="inlineStr">
         <is>
@@ -22901,12 +22901,12 @@
         </is>
       </c>
       <c r="D1252">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1253" t="inlineStr">
         <is>
@@ -22924,7 +22924,7 @@
     </row>
     <row r="1254">
       <c r="A1254" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1254" t="inlineStr">
         <is>
@@ -22937,12 +22937,12 @@
         </is>
       </c>
       <c r="D1254">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B1255" t="inlineStr">
         <is>
@@ -22955,12 +22955,12 @@
         </is>
       </c>
       <c r="D1255">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B1256" t="inlineStr">
         <is>
@@ -22978,7 +22978,7 @@
     </row>
     <row r="1257">
       <c r="A1257" s="2">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B1257" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
     </row>
     <row r="1258">
       <c r="A1258" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B1258" t="inlineStr">
         <is>
@@ -23009,12 +23009,12 @@
         </is>
       </c>
       <c r="D1258">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B1259" t="inlineStr">
         <is>
@@ -23027,12 +23027,12 @@
         </is>
       </c>
       <c r="D1259">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B1260" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
     </row>
     <row r="1261">
       <c r="A1261" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B1261" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
     </row>
     <row r="1262">
       <c r="A1262" s="2">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B1262" t="inlineStr">
         <is>
@@ -23086,7 +23086,7 @@
     </row>
     <row r="1263">
       <c r="A1263" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B1263" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
     </row>
     <row r="1264">
       <c r="A1264" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B1264" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
     </row>
     <row r="1265">
       <c r="A1265" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B1265" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
     </row>
     <row r="1266">
       <c r="A1266" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B1266" t="inlineStr">
         <is>
@@ -23153,12 +23153,12 @@
         </is>
       </c>
       <c r="D1266">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" s="2">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B1267" t="inlineStr">
         <is>
@@ -23171,12 +23171,12 @@
         </is>
       </c>
       <c r="D1267">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B1268" t="inlineStr">
         <is>
@@ -23189,12 +23189,12 @@
         </is>
       </c>
       <c r="D1268">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B1269" t="inlineStr">
         <is>
@@ -23207,12 +23207,12 @@
         </is>
       </c>
       <c r="D1269">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B1270" t="inlineStr">
         <is>
@@ -23230,7 +23230,7 @@
     </row>
     <row r="1271">
       <c r="A1271" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B1271" t="inlineStr">
         <is>
@@ -23243,12 +23243,12 @@
         </is>
       </c>
       <c r="D1271">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" s="2">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B1272" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
     </row>
     <row r="1273">
       <c r="A1273" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1273" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
     </row>
     <row r="1274">
       <c r="A1274" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B1274" t="inlineStr">
         <is>
@@ -23297,12 +23297,12 @@
         </is>
       </c>
       <c r="D1274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B1275" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
     </row>
     <row r="1276">
       <c r="A1276" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B1276" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
     </row>
     <row r="1277">
       <c r="A1277" s="2">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B1277" t="inlineStr">
         <is>
@@ -24976,7 +24976,7 @@
     </row>
     <row r="1368">
       <c r="A1368" s="2">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B1368" t="inlineStr">
         <is>
@@ -24989,12 +24989,12 @@
         </is>
       </c>
       <c r="D1368">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1369">
       <c r="A1369" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1369" t="inlineStr">
         <is>
@@ -25007,12 +25007,12 @@
         </is>
       </c>
       <c r="D1369">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1370">
       <c r="A1370" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1370" t="inlineStr">
         <is>
@@ -25030,7 +25030,7 @@
     </row>
     <row r="1371">
       <c r="A1371" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B1371" t="inlineStr">
         <is>
@@ -25043,12 +25043,12 @@
         </is>
       </c>
       <c r="D1371">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1372">
       <c r="A1372" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B1372" t="inlineStr">
         <is>
@@ -25066,7 +25066,7 @@
     </row>
     <row r="1373">
       <c r="A1373" s="2">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B1373" t="inlineStr">
         <is>
@@ -25079,12 +25079,12 @@
         </is>
       </c>
       <c r="D1373">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1374">
       <c r="A1374" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B1374" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
     </row>
     <row r="1375">
       <c r="A1375" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B1375" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
     </row>
     <row r="1376">
       <c r="A1376" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B1376" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
     </row>
     <row r="1377">
       <c r="A1377" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B1377" t="inlineStr">
         <is>
@@ -25151,12 +25151,12 @@
         </is>
       </c>
       <c r="D1377">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" s="2">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B1378" t="inlineStr">
         <is>
@@ -25169,12 +25169,12 @@
         </is>
       </c>
       <c r="D1378">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B1379" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
     </row>
     <row r="1380">
       <c r="A1380" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B1380" t="inlineStr">
         <is>
@@ -25210,7 +25210,7 @@
     </row>
     <row r="1381">
       <c r="A1381" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B1381" t="inlineStr">
         <is>
@@ -25223,12 +25223,12 @@
         </is>
       </c>
       <c r="D1381">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1382">
       <c r="A1382" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B1382" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
     </row>
     <row r="1383">
       <c r="A1383" s="2">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B1383" t="inlineStr">
         <is>
@@ -25264,7 +25264,7 @@
     </row>
     <row r="1384">
       <c r="A1384" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B1384" t="inlineStr">
         <is>
@@ -25277,12 +25277,12 @@
         </is>
       </c>
       <c r="D1384">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B1385" t="inlineStr">
         <is>
@@ -25300,7 +25300,7 @@
     </row>
     <row r="1386">
       <c r="A1386" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B1386" t="inlineStr">
         <is>
@@ -25318,7 +25318,7 @@
     </row>
     <row r="1387">
       <c r="A1387" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B1387" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
     </row>
     <row r="1388">
       <c r="A1388" s="2">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B1388" t="inlineStr">
         <is>
@@ -25349,12 +25349,12 @@
         </is>
       </c>
       <c r="D1388">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1389" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
     </row>
     <row r="1390">
       <c r="A1390" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B1390" t="inlineStr">
         <is>
@@ -25390,7 +25390,7 @@
     </row>
     <row r="1391">
       <c r="A1391" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B1391" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
     </row>
     <row r="1392">
       <c r="A1392" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B1392" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
     </row>
     <row r="1393">
       <c r="A1393" s="2">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B1393" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
     </row>
     <row r="1484">
       <c r="A1484" s="2">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B1484" t="inlineStr">
         <is>
@@ -27077,12 +27077,12 @@
         </is>
       </c>
       <c r="D1484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1485">
       <c r="A1485" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1485" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
     </row>
     <row r="1486">
       <c r="A1486" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1486" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
     </row>
     <row r="1487">
       <c r="A1487" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
     </row>
     <row r="1488">
       <c r="A1488" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B1488" t="inlineStr">
         <is>
@@ -27154,7 +27154,7 @@
     </row>
     <row r="1489">
       <c r="A1489" s="2">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B1489" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
     </row>
     <row r="1490">
       <c r="A1490" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
     </row>
     <row r="1491">
       <c r="A1491" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B1491" t="inlineStr">
         <is>
@@ -27208,7 +27208,7 @@
     </row>
     <row r="1492">
       <c r="A1492" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
@@ -27226,7 +27226,7 @@
     </row>
     <row r="1493">
       <c r="A1493" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B1493" t="inlineStr">
         <is>
@@ -27244,7 +27244,7 @@
     </row>
     <row r="1494">
       <c r="A1494" s="2">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B1494" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
     </row>
     <row r="1495">
       <c r="A1495" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B1495" t="inlineStr">
         <is>
@@ -27280,7 +27280,7 @@
     </row>
     <row r="1496">
       <c r="A1496" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B1496" t="inlineStr">
         <is>
@@ -27298,7 +27298,7 @@
     </row>
     <row r="1497">
       <c r="A1497" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B1497" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
     </row>
     <row r="1498">
       <c r="A1498" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B1498" t="inlineStr">
         <is>
@@ -27334,7 +27334,7 @@
     </row>
     <row r="1499">
       <c r="A1499" s="2">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B1499" t="inlineStr">
         <is>
@@ -27352,7 +27352,7 @@
     </row>
     <row r="1500">
       <c r="A1500" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B1500" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
     </row>
     <row r="1501">
       <c r="A1501" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B1501" t="inlineStr">
         <is>
@@ -27388,7 +27388,7 @@
     </row>
     <row r="1502">
       <c r="A1502" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B1502" t="inlineStr">
         <is>
@@ -27406,7 +27406,7 @@
     </row>
     <row r="1503">
       <c r="A1503" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B1503" t="inlineStr">
         <is>
@@ -27424,7 +27424,7 @@
     </row>
     <row r="1504">
       <c r="A1504" s="2">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B1504" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
     </row>
     <row r="1505">
       <c r="A1505" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1505" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
     </row>
     <row r="1506">
       <c r="A1506" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B1506" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
     </row>
     <row r="1507">
       <c r="A1507" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B1507" t="inlineStr">
         <is>
@@ -27496,7 +27496,7 @@
     </row>
     <row r="1508">
       <c r="A1508" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
     </row>
     <row r="1509">
       <c r="A1509" s="2">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B1509" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
     </row>
     <row r="1600">
       <c r="A1600" s="2">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B1600" t="inlineStr">
         <is>
@@ -29165,12 +29165,12 @@
         </is>
       </c>
       <c r="D1600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1601">
       <c r="A1601" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1601" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
     </row>
     <row r="1602">
       <c r="A1602" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1602" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
     </row>
     <row r="1603">
       <c r="A1603" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B1603" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
     </row>
     <row r="1604">
       <c r="A1604" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B1604" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
     </row>
     <row r="1605">
       <c r="A1605" s="2">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B1605" t="inlineStr">
         <is>
@@ -29255,12 +29255,12 @@
         </is>
       </c>
       <c r="D1605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1606">
       <c r="A1606" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B1606" t="inlineStr">
         <is>
@@ -29278,7 +29278,7 @@
     </row>
     <row r="1607">
       <c r="A1607" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B1607" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
     </row>
     <row r="1608">
       <c r="A1608" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B1608" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
     </row>
     <row r="1609">
       <c r="A1609" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B1609" t="inlineStr">
         <is>
@@ -29332,7 +29332,7 @@
     </row>
     <row r="1610">
       <c r="A1610" s="2">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B1610" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
     </row>
     <row r="1611">
       <c r="A1611" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B1611" t="inlineStr">
         <is>
@@ -29368,7 +29368,7 @@
     </row>
     <row r="1612">
       <c r="A1612" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B1612" t="inlineStr">
         <is>
@@ -29386,7 +29386,7 @@
     </row>
     <row r="1613">
       <c r="A1613" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B1613" t="inlineStr">
         <is>
@@ -29404,7 +29404,7 @@
     </row>
     <row r="1614">
       <c r="A1614" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B1614" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
     </row>
     <row r="1615">
       <c r="A1615" s="2">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B1615" t="inlineStr">
         <is>
@@ -29440,7 +29440,7 @@
     </row>
     <row r="1616">
       <c r="A1616" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B1616" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
     </row>
     <row r="1617">
       <c r="A1617" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B1617" t="inlineStr">
         <is>
@@ -29476,7 +29476,7 @@
     </row>
     <row r="1618">
       <c r="A1618" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B1618" t="inlineStr">
         <is>
@@ -29494,7 +29494,7 @@
     </row>
     <row r="1619">
       <c r="A1619" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B1619" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
     </row>
     <row r="1620">
       <c r="A1620" s="2">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B1620" t="inlineStr">
         <is>
@@ -29530,7 +29530,7 @@
     </row>
     <row r="1621">
       <c r="A1621" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1621" t="inlineStr">
         <is>
@@ -29548,7 +29548,7 @@
     </row>
     <row r="1622">
       <c r="A1622" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B1622" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
     </row>
     <row r="1623">
       <c r="A1623" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B1623" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
     </row>
     <row r="1624">
       <c r="A1624" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B1624" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
     </row>
     <row r="1625">
       <c r="A1625" s="2">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B1625" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
     </row>
     <row r="1716">
       <c r="A1716" s="2">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B1716" t="inlineStr">
         <is>
@@ -31253,12 +31253,12 @@
         </is>
       </c>
       <c r="D1716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1717" t="inlineStr">
         <is>
@@ -31276,7 +31276,7 @@
     </row>
     <row r="1718">
       <c r="A1718" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1718" t="inlineStr">
         <is>
@@ -31294,7 +31294,7 @@
     </row>
     <row r="1719">
       <c r="A1719" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B1719" t="inlineStr">
         <is>
@@ -31312,7 +31312,7 @@
     </row>
     <row r="1720">
       <c r="A1720" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B1720" t="inlineStr">
         <is>
@@ -31330,7 +31330,7 @@
     </row>
     <row r="1721">
       <c r="A1721" s="2">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B1721" t="inlineStr">
         <is>
@@ -31348,7 +31348,7 @@
     </row>
     <row r="1722">
       <c r="A1722" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B1722" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
     </row>
     <row r="1723">
       <c r="A1723" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B1723" t="inlineStr">
         <is>
@@ -31384,7 +31384,7 @@
     </row>
     <row r="1724">
       <c r="A1724" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B1724" t="inlineStr">
         <is>
@@ -31402,7 +31402,7 @@
     </row>
     <row r="1725">
       <c r="A1725" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B1725" t="inlineStr">
         <is>
@@ -31415,12 +31415,12 @@
         </is>
       </c>
       <c r="D1725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1726">
       <c r="A1726" s="2">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B1726" t="inlineStr">
         <is>
@@ -31438,7 +31438,7 @@
     </row>
     <row r="1727">
       <c r="A1727" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B1727" t="inlineStr">
         <is>
@@ -31456,7 +31456,7 @@
     </row>
     <row r="1728">
       <c r="A1728" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B1728" t="inlineStr">
         <is>
@@ -31474,7 +31474,7 @@
     </row>
     <row r="1729">
       <c r="A1729" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B1729" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
     </row>
     <row r="1730">
       <c r="A1730" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B1730" t="inlineStr">
         <is>
@@ -31510,7 +31510,7 @@
     </row>
     <row r="1731">
       <c r="A1731" s="2">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B1731" t="inlineStr">
         <is>
@@ -31528,7 +31528,7 @@
     </row>
     <row r="1732">
       <c r="A1732" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B1732" t="inlineStr">
         <is>
@@ -31546,7 +31546,7 @@
     </row>
     <row r="1733">
       <c r="A1733" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B1733" t="inlineStr">
         <is>
@@ -31564,7 +31564,7 @@
     </row>
     <row r="1734">
       <c r="A1734" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B1734" t="inlineStr">
         <is>
@@ -31582,7 +31582,7 @@
     </row>
     <row r="1735">
       <c r="A1735" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B1735" t="inlineStr">
         <is>
@@ -31600,7 +31600,7 @@
     </row>
     <row r="1736">
       <c r="A1736" s="2">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B1736" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
     </row>
     <row r="1737">
       <c r="A1737" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1737" t="inlineStr">
         <is>
@@ -31636,7 +31636,7 @@
     </row>
     <row r="1738">
       <c r="A1738" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B1738" t="inlineStr">
         <is>
@@ -31654,7 +31654,7 @@
     </row>
     <row r="1739">
       <c r="A1739" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B1739" t="inlineStr">
         <is>
@@ -31672,7 +31672,7 @@
     </row>
     <row r="1740">
       <c r="A1740" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B1740" t="inlineStr">
         <is>
@@ -31690,7 +31690,7 @@
     </row>
     <row r="1741">
       <c r="A1741" s="2">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B1741" t="inlineStr">
         <is>
@@ -33328,7 +33328,7 @@
     </row>
     <row r="1832">
       <c r="A1832" s="2">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B1832" t="inlineStr">
         <is>
@@ -33341,12 +33341,12 @@
         </is>
       </c>
       <c r="D1832">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1833">
       <c r="A1833" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1833" t="inlineStr">
         <is>
@@ -33359,12 +33359,12 @@
         </is>
       </c>
       <c r="D1833">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1834">
       <c r="A1834" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1834" t="inlineStr">
         <is>
@@ -33377,12 +33377,12 @@
         </is>
       </c>
       <c r="D1834">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1835">
       <c r="A1835" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B1835" t="inlineStr">
         <is>
@@ -33395,12 +33395,12 @@
         </is>
       </c>
       <c r="D1835">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1836">
       <c r="A1836" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B1836" t="inlineStr">
         <is>
@@ -33418,7 +33418,7 @@
     </row>
     <row r="1837">
       <c r="A1837" s="2">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B1837" t="inlineStr">
         <is>
@@ -33436,7 +33436,7 @@
     </row>
     <row r="1838">
       <c r="A1838" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B1838" t="inlineStr">
         <is>
@@ -33454,7 +33454,7 @@
     </row>
     <row r="1839">
       <c r="A1839" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B1839" t="inlineStr">
         <is>
@@ -33472,7 +33472,7 @@
     </row>
     <row r="1840">
       <c r="A1840" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B1840" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
     </row>
     <row r="1841">
       <c r="A1841" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B1841" t="inlineStr">
         <is>
@@ -33508,7 +33508,7 @@
     </row>
     <row r="1842">
       <c r="A1842" s="2">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B1842" t="inlineStr">
         <is>
@@ -33526,7 +33526,7 @@
     </row>
     <row r="1843">
       <c r="A1843" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B1843" t="inlineStr">
         <is>
@@ -33544,7 +33544,7 @@
     </row>
     <row r="1844">
       <c r="A1844" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B1844" t="inlineStr">
         <is>
@@ -33557,12 +33557,12 @@
         </is>
       </c>
       <c r="D1844">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1845">
       <c r="A1845" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B1845" t="inlineStr">
         <is>
@@ -33580,7 +33580,7 @@
     </row>
     <row r="1846">
       <c r="A1846" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B1846" t="inlineStr">
         <is>
@@ -33598,7 +33598,7 @@
     </row>
     <row r="1847">
       <c r="A1847" s="2">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B1847" t="inlineStr">
         <is>
@@ -33611,12 +33611,12 @@
         </is>
       </c>
       <c r="D1847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1848">
       <c r="A1848" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B1848" t="inlineStr">
         <is>
@@ -33634,7 +33634,7 @@
     </row>
     <row r="1849">
       <c r="A1849" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B1849" t="inlineStr">
         <is>
@@ -33652,7 +33652,7 @@
     </row>
     <row r="1850">
       <c r="A1850" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B1850" t="inlineStr">
         <is>
@@ -33670,7 +33670,7 @@
     </row>
     <row r="1851">
       <c r="A1851" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B1851" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
     </row>
     <row r="1852">
       <c r="A1852" s="2">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B1852" t="inlineStr">
         <is>
@@ -33701,12 +33701,12 @@
         </is>
       </c>
       <c r="D1852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1853">
       <c r="A1853" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1853" t="inlineStr">
         <is>
@@ -33719,12 +33719,12 @@
         </is>
       </c>
       <c r="D1853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1854">
       <c r="A1854" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B1854" t="inlineStr">
         <is>
@@ -33742,7 +33742,7 @@
     </row>
     <row r="1855">
       <c r="A1855" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B1855" t="inlineStr">
         <is>
@@ -33760,7 +33760,7 @@
     </row>
     <row r="1856">
       <c r="A1856" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B1856" t="inlineStr">
         <is>
@@ -33778,7 +33778,7 @@
     </row>
     <row r="1857">
       <c r="A1857" s="2">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B1857" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
     </row>
     <row r="1948">
       <c r="A1948" s="2">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B1948" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
     </row>
     <row r="1949">
       <c r="A1949" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1949" t="inlineStr">
         <is>
@@ -35452,7 +35452,7 @@
     </row>
     <row r="1950">
       <c r="A1950" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1950" t="inlineStr">
         <is>
@@ -35470,7 +35470,7 @@
     </row>
     <row r="1951">
       <c r="A1951" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
@@ -35488,7 +35488,7 @@
     </row>
     <row r="1952">
       <c r="A1952" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
@@ -35506,7 +35506,7 @@
     </row>
     <row r="1953">
       <c r="A1953" s="2">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
@@ -35524,7 +35524,7 @@
     </row>
     <row r="1954">
       <c r="A1954" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
@@ -35537,12 +35537,12 @@
         </is>
       </c>
       <c r="D1954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1955">
       <c r="A1955" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
     </row>
     <row r="1956">
       <c r="A1956" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
@@ -35578,7 +35578,7 @@
     </row>
     <row r="1957">
       <c r="A1957" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
@@ -35596,7 +35596,7 @@
     </row>
     <row r="1958">
       <c r="A1958" s="2">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
@@ -35609,12 +35609,12 @@
         </is>
       </c>
       <c r="D1958">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1959">
       <c r="A1959" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
@@ -35632,7 +35632,7 @@
     </row>
     <row r="1960">
       <c r="A1960" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B1960" t="inlineStr">
         <is>
@@ -35650,7 +35650,7 @@
     </row>
     <row r="1961">
       <c r="A1961" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
@@ -35668,7 +35668,7 @@
     </row>
     <row r="1962">
       <c r="A1962" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
@@ -35686,7 +35686,7 @@
     </row>
     <row r="1963">
       <c r="A1963" s="2">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
@@ -35699,12 +35699,12 @@
         </is>
       </c>
       <c r="D1963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1964">
       <c r="A1964" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B1964" t="inlineStr">
         <is>
@@ -35717,12 +35717,12 @@
         </is>
       </c>
       <c r="D1964">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1965">
       <c r="A1965" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B1965" t="inlineStr">
         <is>
@@ -35740,7 +35740,7 @@
     </row>
     <row r="1966">
       <c r="A1966" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
@@ -35758,7 +35758,7 @@
     </row>
     <row r="1967">
       <c r="A1967" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
@@ -35776,7 +35776,7 @@
     </row>
     <row r="1968">
       <c r="A1968" s="2">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
@@ -35794,7 +35794,7 @@
     </row>
     <row r="1969">
       <c r="A1969" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
@@ -35812,7 +35812,7 @@
     </row>
     <row r="1970">
       <c r="A1970" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
@@ -35825,12 +35825,12 @@
         </is>
       </c>
       <c r="D1970">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1971">
       <c r="A1971" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B1971" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
     </row>
     <row r="1972">
       <c r="A1972" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
@@ -35866,7 +35866,7 @@
     </row>
     <row r="1973">
       <c r="A1973" s="2">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
@@ -37504,7 +37504,7 @@
     </row>
     <row r="2064">
       <c r="A2064" s="2">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B2064" t="inlineStr">
         <is>
@@ -37522,7 +37522,7 @@
     </row>
     <row r="2065">
       <c r="A2065" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B2065" t="inlineStr">
         <is>
@@ -37540,7 +37540,7 @@
     </row>
     <row r="2066">
       <c r="A2066" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B2066" t="inlineStr">
         <is>
@@ -37558,7 +37558,7 @@
     </row>
     <row r="2067">
       <c r="A2067" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B2067" t="inlineStr">
         <is>
@@ -37576,7 +37576,7 @@
     </row>
     <row r="2068">
       <c r="A2068" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B2068" t="inlineStr">
         <is>
@@ -37594,7 +37594,7 @@
     </row>
     <row r="2069">
       <c r="A2069" s="2">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B2069" t="inlineStr">
         <is>
@@ -37612,7 +37612,7 @@
     </row>
     <row r="2070">
       <c r="A2070" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B2070" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
     </row>
     <row r="2071">
       <c r="A2071" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B2071" t="inlineStr">
         <is>
@@ -37648,7 +37648,7 @@
     </row>
     <row r="2072">
       <c r="A2072" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B2072" t="inlineStr">
         <is>
@@ -37666,7 +37666,7 @@
     </row>
     <row r="2073">
       <c r="A2073" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B2073" t="inlineStr">
         <is>
@@ -37684,7 +37684,7 @@
     </row>
     <row r="2074">
       <c r="A2074" s="2">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B2074" t="inlineStr">
         <is>
@@ -37702,7 +37702,7 @@
     </row>
     <row r="2075">
       <c r="A2075" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B2075" t="inlineStr">
         <is>
@@ -37720,7 +37720,7 @@
     </row>
     <row r="2076">
       <c r="A2076" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B2076" t="inlineStr">
         <is>
@@ -37738,7 +37738,7 @@
     </row>
     <row r="2077">
       <c r="A2077" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B2077" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
     </row>
     <row r="2078">
       <c r="A2078" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B2078" t="inlineStr">
         <is>
@@ -37774,7 +37774,7 @@
     </row>
     <row r="2079">
       <c r="A2079" s="2">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B2079" t="inlineStr">
         <is>
@@ -37792,7 +37792,7 @@
     </row>
     <row r="2080">
       <c r="A2080" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B2080" t="inlineStr">
         <is>
@@ -37810,7 +37810,7 @@
     </row>
     <row r="2081">
       <c r="A2081" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B2081" t="inlineStr">
         <is>
@@ -37828,7 +37828,7 @@
     </row>
     <row r="2082">
       <c r="A2082" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B2082" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
     </row>
     <row r="2083">
       <c r="A2083" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B2083" t="inlineStr">
         <is>
@@ -37864,7 +37864,7 @@
     </row>
     <row r="2084">
       <c r="A2084" s="2">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B2084" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
     </row>
     <row r="2085">
       <c r="A2085" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B2085" t="inlineStr">
         <is>
@@ -37900,7 +37900,7 @@
     </row>
     <row r="2086">
       <c r="A2086" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B2086" t="inlineStr">
         <is>
@@ -37918,7 +37918,7 @@
     </row>
     <row r="2087">
       <c r="A2087" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B2087" t="inlineStr">
         <is>
@@ -37936,7 +37936,7 @@
     </row>
     <row r="2088">
       <c r="A2088" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B2088" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
     </row>
     <row r="2089">
       <c r="A2089" s="2">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B2089" t="inlineStr">
         <is>
@@ -39592,7 +39592,7 @@
     </row>
     <row r="2180">
       <c r="A2180" s="2">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B2180" t="inlineStr">
         <is>
@@ -39610,7 +39610,7 @@
     </row>
     <row r="2181">
       <c r="A2181" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B2181" t="inlineStr">
         <is>
@@ -39628,7 +39628,7 @@
     </row>
     <row r="2182">
       <c r="A2182" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B2182" t="inlineStr">
         <is>
@@ -39646,7 +39646,7 @@
     </row>
     <row r="2183">
       <c r="A2183" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B2183" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
     </row>
     <row r="2184">
       <c r="A2184" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B2184" t="inlineStr">
         <is>
@@ -39682,7 +39682,7 @@
     </row>
     <row r="2185">
       <c r="A2185" s="2">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B2185" t="inlineStr">
         <is>
@@ -39700,7 +39700,7 @@
     </row>
     <row r="2186">
       <c r="A2186" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B2186" t="inlineStr">
         <is>
@@ -39718,7 +39718,7 @@
     </row>
     <row r="2187">
       <c r="A2187" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B2187" t="inlineStr">
         <is>
@@ -39736,7 +39736,7 @@
     </row>
     <row r="2188">
       <c r="A2188" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B2188" t="inlineStr">
         <is>
@@ -39754,7 +39754,7 @@
     </row>
     <row r="2189">
       <c r="A2189" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B2189" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
     </row>
     <row r="2190">
       <c r="A2190" s="2">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B2190" t="inlineStr">
         <is>
@@ -39790,7 +39790,7 @@
     </row>
     <row r="2191">
       <c r="A2191" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B2191" t="inlineStr">
         <is>
@@ -39808,7 +39808,7 @@
     </row>
     <row r="2192">
       <c r="A2192" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B2192" t="inlineStr">
         <is>
@@ -39826,7 +39826,7 @@
     </row>
     <row r="2193">
       <c r="A2193" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B2193" t="inlineStr">
         <is>
@@ -39844,7 +39844,7 @@
     </row>
     <row r="2194">
       <c r="A2194" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B2194" t="inlineStr">
         <is>
@@ -39862,7 +39862,7 @@
     </row>
     <row r="2195">
       <c r="A2195" s="2">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B2195" t="inlineStr">
         <is>
@@ -39880,7 +39880,7 @@
     </row>
     <row r="2196">
       <c r="A2196" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B2196" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
     </row>
     <row r="2197">
       <c r="A2197" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B2197" t="inlineStr">
         <is>
@@ -39916,7 +39916,7 @@
     </row>
     <row r="2198">
       <c r="A2198" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B2198" t="inlineStr">
         <is>
@@ -39934,7 +39934,7 @@
     </row>
     <row r="2199">
       <c r="A2199" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B2199" t="inlineStr">
         <is>
@@ -39952,7 +39952,7 @@
     </row>
     <row r="2200">
       <c r="A2200" s="2">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B2200" t="inlineStr">
         <is>
@@ -39970,7 +39970,7 @@
     </row>
     <row r="2201">
       <c r="A2201" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B2201" t="inlineStr">
         <is>
@@ -39988,7 +39988,7 @@
     </row>
     <row r="2202">
       <c r="A2202" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B2202" t="inlineStr">
         <is>
@@ -40006,7 +40006,7 @@
     </row>
     <row r="2203">
       <c r="A2203" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B2203" t="inlineStr">
         <is>
@@ -40024,7 +40024,7 @@
     </row>
     <row r="2204">
       <c r="A2204" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B2204" t="inlineStr">
         <is>
@@ -40042,7 +40042,7 @@
     </row>
     <row r="2205">
       <c r="A2205" s="2">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B2205" t="inlineStr">
         <is>
@@ -41680,7 +41680,7 @@
     </row>
     <row r="2296">
       <c r="A2296" s="2">
-        <v>43988</v>
+        <v>43990</v>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
@@ -41693,12 +41693,12 @@
         </is>
       </c>
       <c r="D2296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2297">
       <c r="A2297" s="2">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
     </row>
     <row r="2298">
       <c r="A2298" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
@@ -41734,7 +41734,7 @@
     </row>
     <row r="2299">
       <c r="A2299" s="2">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
@@ -41752,7 +41752,7 @@
     </row>
     <row r="2300">
       <c r="A2300" s="2">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
@@ -41770,7 +41770,7 @@
     </row>
     <row r="2301">
       <c r="A2301" s="2">
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
@@ -41783,12 +41783,12 @@
         </is>
       </c>
       <c r="D2301">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2302">
       <c r="A2302" s="2">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
@@ -41801,12 +41801,12 @@
         </is>
       </c>
       <c r="D2302">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" s="2">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
@@ -41824,7 +41824,7 @@
     </row>
     <row r="2304">
       <c r="A2304" s="2">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
@@ -41842,7 +41842,7 @@
     </row>
     <row r="2305">
       <c r="A2305" s="2">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
@@ -41860,7 +41860,7 @@
     </row>
     <row r="2306">
       <c r="A2306" s="2">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
@@ -41873,12 +41873,12 @@
         </is>
       </c>
       <c r="D2306">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2307">
       <c r="A2307" s="2">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
@@ -41891,12 +41891,12 @@
         </is>
       </c>
       <c r="D2307">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2308">
       <c r="A2308" s="2">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
@@ -41909,12 +41909,12 @@
         </is>
       </c>
       <c r="D2308">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2309">
       <c r="A2309" s="2">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
@@ -41932,7 +41932,7 @@
     </row>
     <row r="2310">
       <c r="A2310" s="2">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
@@ -41950,7 +41950,7 @@
     </row>
     <row r="2311">
       <c r="A2311" s="2">
-        <v>44008</v>
+        <v>44011</v>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
@@ -41968,7 +41968,7 @@
     </row>
     <row r="2312">
       <c r="A2312" s="2">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
@@ -41986,7 +41986,7 @@
     </row>
     <row r="2313">
       <c r="A2313" s="2">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
@@ -42004,7 +42004,7 @@
     </row>
     <row r="2314">
       <c r="A2314" s="2">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
@@ -42022,7 +42022,7 @@
     </row>
     <row r="2315">
       <c r="A2315" s="2">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
@@ -42040,7 +42040,7 @@
     </row>
     <row r="2316">
       <c r="A2316" s="2">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
@@ -42053,12 +42053,12 @@
         </is>
       </c>
       <c r="D2316">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2317">
       <c r="A2317" s="2">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
@@ -42071,12 +42071,12 @@
         </is>
       </c>
       <c r="D2317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" s="2">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B2318" t="inlineStr">
         <is>
@@ -42094,7 +42094,7 @@
     </row>
     <row r="2319">
       <c r="A2319" s="2">
-        <v>44020</v>
+        <v>44021</v>
       </c>
       <c r="B2319" t="inlineStr">
         <is>
@@ -42107,12 +42107,12 @@
         </is>
       </c>
       <c r="D2319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" s="2">
-        <v>44021</v>
+        <v>44022</v>
       </c>
       <c r="B2320" t="inlineStr">
         <is>
@@ -42125,12 +42125,12 @@
         </is>
       </c>
       <c r="D2320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2321">
       <c r="A2321" s="2">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B2321" t="inlineStr">
         <is>
@@ -42143,7 +42143,7 @@
         </is>
       </c>
       <c r="D2321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="D19">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="D20">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="D23">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="D25">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="D26">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D27">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D29">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="D30">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="D31">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="D32">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="D33">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34">
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="D34">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="D35">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="D39">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="D42">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="D44">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="D45">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="D51">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="D52">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="D54">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="D56">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="D57">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="D59">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="D64">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
@@ -1589,7 +1589,7 @@
         </is>
       </c>
       <c r="D68">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D69">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="D70">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         </is>
       </c>
       <c r="D75">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -1733,7 +1733,7 @@
         </is>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="D82">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -1859,7 +1859,7 @@
         </is>
       </c>
       <c r="D83">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
@@ -1895,7 +1895,7 @@
         </is>
       </c>
       <c r="D85">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="D88">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -2003,7 +2003,7 @@
         </is>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -2075,7 +2075,7 @@
         </is>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2093,7 +2093,7 @@
         </is>
       </c>
       <c r="D96">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="D101">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
@@ -2201,7 +2201,7 @@
         </is>
       </c>
       <c r="D102">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="D104">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
@@ -2255,7 +2255,7 @@
         </is>
       </c>
       <c r="D105">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106">
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="D107">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D109">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110">
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="D110">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="D111">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112">
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113">
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -2579,7 +2579,7 @@
         </is>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -2903,7 +2903,7 @@
         </is>
       </c>
       <c r="D141">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
@@ -2975,7 +2975,7 @@
         </is>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -2993,7 +2993,7 @@
         </is>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -3155,7 +3155,7 @@
         </is>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -3227,7 +3227,7 @@
         </is>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -3299,7 +3299,7 @@
         </is>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -5477,7 +5477,7 @@
         </is>
       </c>
       <c r="D284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -5657,7 +5657,7 @@
         </is>
       </c>
       <c r="D294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -5711,7 +5711,7 @@
         </is>
       </c>
       <c r="D297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -7151,7 +7151,7 @@
         </is>
       </c>
       <c r="D377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -7241,7 +7241,7 @@
         </is>
       </c>
       <c r="D382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -7475,7 +7475,7 @@
         </is>
       </c>
       <c r="D395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -7493,7 +7493,7 @@
         </is>
       </c>
       <c r="D396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -7511,7 +7511,7 @@
         </is>
       </c>
       <c r="D397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -7529,7 +7529,7 @@
         </is>
       </c>
       <c r="D398">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -7583,7 +7583,7 @@
         </is>
       </c>
       <c r="D401">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="402">
@@ -7601,7 +7601,7 @@
         </is>
       </c>
       <c r="D402">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403">
@@ -7619,7 +7619,7 @@
         </is>
       </c>
       <c r="D403">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="404">
@@ -7637,7 +7637,7 @@
         </is>
       </c>
       <c r="D404">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="405">
@@ -7655,7 +7655,7 @@
         </is>
       </c>
       <c r="D405">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="406">
@@ -7673,7 +7673,7 @@
         </is>
       </c>
       <c r="D406">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="407">
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="D407">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="408">
@@ -7709,7 +7709,7 @@
         </is>
       </c>
       <c r="D408">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="409">
@@ -7727,7 +7727,7 @@
         </is>
       </c>
       <c r="D409">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="410">
@@ -7781,7 +7781,7 @@
         </is>
       </c>
       <c r="D412">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="413">
@@ -7799,7 +7799,7 @@
         </is>
       </c>
       <c r="D413">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="414">
@@ -7817,7 +7817,7 @@
         </is>
       </c>
       <c r="D414">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="415">
@@ -7835,7 +7835,7 @@
         </is>
       </c>
       <c r="D415">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="416">
@@ -7853,7 +7853,7 @@
         </is>
       </c>
       <c r="D416">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="417">
@@ -7907,7 +7907,7 @@
         </is>
       </c>
       <c r="D419">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="420">
@@ -7925,7 +7925,7 @@
         </is>
       </c>
       <c r="D420">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="421">
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="D421">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="422">
@@ -7961,7 +7961,7 @@
         </is>
       </c>
       <c r="D422">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="423">
@@ -7979,7 +7979,7 @@
         </is>
       </c>
       <c r="D423">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="424">
@@ -7997,7 +7997,7 @@
         </is>
       </c>
       <c r="D424">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="425">
@@ -8033,7 +8033,7 @@
         </is>
       </c>
       <c r="D426">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="427">
@@ -8069,7 +8069,7 @@
         </is>
       </c>
       <c r="D428">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="429">
@@ -8123,7 +8123,7 @@
         </is>
       </c>
       <c r="D431">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="432">
@@ -8141,7 +8141,7 @@
         </is>
       </c>
       <c r="D432">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="433">
@@ -8159,7 +8159,7 @@
         </is>
       </c>
       <c r="D433">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="434">
@@ -8177,7 +8177,7 @@
         </is>
       </c>
       <c r="D434">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="435">
@@ -8213,7 +8213,7 @@
         </is>
       </c>
       <c r="D436">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="437">
@@ -8249,7 +8249,7 @@
         </is>
       </c>
       <c r="D438">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="439">
@@ -8267,7 +8267,7 @@
         </is>
       </c>
       <c r="D439">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="440">
@@ -8285,7 +8285,7 @@
         </is>
       </c>
       <c r="D440">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="441">
@@ -8303,7 +8303,7 @@
         </is>
       </c>
       <c r="D441">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="442">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="D442">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="443">
@@ -8357,7 +8357,7 @@
         </is>
       </c>
       <c r="D444">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="445">
@@ -8375,7 +8375,7 @@
         </is>
       </c>
       <c r="D445">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="446">
@@ -8393,7 +8393,7 @@
         </is>
       </c>
       <c r="D446">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="447">
@@ -8465,7 +8465,7 @@
         </is>
       </c>
       <c r="D450">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="451">
@@ -8483,7 +8483,7 @@
         </is>
       </c>
       <c r="D451">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="452">
@@ -8555,7 +8555,7 @@
         </is>
       </c>
       <c r="D455">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="456">
@@ -8609,7 +8609,7 @@
         </is>
       </c>
       <c r="D458">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="459">
@@ -8645,7 +8645,7 @@
         </is>
       </c>
       <c r="D460">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="461">
@@ -8717,7 +8717,7 @@
         </is>
       </c>
       <c r="D464">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="465">
@@ -8735,7 +8735,7 @@
         </is>
       </c>
       <c r="D465">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="466">
@@ -8753,7 +8753,7 @@
         </is>
       </c>
       <c r="D466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -9059,7 +9059,7 @@
         </is>
       </c>
       <c r="D483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -9131,7 +9131,7 @@
         </is>
       </c>
       <c r="D487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -9167,7 +9167,7 @@
         </is>
       </c>
       <c r="D489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -9185,7 +9185,7 @@
         </is>
       </c>
       <c r="D490">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -9203,7 +9203,7 @@
         </is>
       </c>
       <c r="D491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492">
@@ -9581,7 +9581,7 @@
         </is>
       </c>
       <c r="D512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -9617,7 +9617,7 @@
         </is>
       </c>
       <c r="D514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -9887,7 +9887,7 @@
         </is>
       </c>
       <c r="D529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -9959,7 +9959,7 @@
         </is>
       </c>
       <c r="D533">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -9977,7 +9977,7 @@
         </is>
       </c>
       <c r="D534">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535">
@@ -10031,7 +10031,7 @@
         </is>
       </c>
       <c r="D537">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538">
@@ -10049,7 +10049,7 @@
         </is>
       </c>
       <c r="D538">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="539">
@@ -10103,7 +10103,7 @@
         </is>
       </c>
       <c r="D541">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="542">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="D542">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="543">
@@ -10175,7 +10175,7 @@
         </is>
       </c>
       <c r="D545">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="546">
@@ -10193,7 +10193,7 @@
         </is>
       </c>
       <c r="D546">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="547">
@@ -10211,7 +10211,7 @@
         </is>
       </c>
       <c r="D547">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="548">
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D549">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="550">
@@ -10265,7 +10265,7 @@
         </is>
       </c>
       <c r="D550">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="551">
@@ -10301,7 +10301,7 @@
         </is>
       </c>
       <c r="D552">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="553">
@@ -10409,7 +10409,7 @@
         </is>
       </c>
       <c r="D558">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="559">
@@ -10445,7 +10445,7 @@
         </is>
       </c>
       <c r="D560">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="561">
@@ -10463,7 +10463,7 @@
         </is>
       </c>
       <c r="D561">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="562">
@@ -10589,7 +10589,7 @@
         </is>
       </c>
       <c r="D568">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569">
@@ -10751,7 +10751,7 @@
         </is>
       </c>
       <c r="D577">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578">
@@ -10769,7 +10769,7 @@
         </is>
       </c>
       <c r="D578">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="579">
@@ -11075,7 +11075,7 @@
         </is>
       </c>
       <c r="D595">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596">
@@ -11255,7 +11255,7 @@
         </is>
       </c>
       <c r="D605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -11435,7 +11435,7 @@
         </is>
       </c>
       <c r="D615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
@@ -11453,7 +11453,7 @@
         </is>
       </c>
       <c r="D616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="D642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
@@ -11993,7 +11993,7 @@
         </is>
       </c>
       <c r="D646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
@@ -12425,7 +12425,7 @@
         </is>
       </c>
       <c r="D670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
@@ -12479,7 +12479,7 @@
         </is>
       </c>
       <c r="D673">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674">
@@ -12515,7 +12515,7 @@
         </is>
       </c>
       <c r="D675">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676">
@@ -12551,7 +12551,7 @@
         </is>
       </c>
       <c r="D677">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
@@ -12587,7 +12587,7 @@
         </is>
       </c>
       <c r="D679">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="680">
@@ -12605,7 +12605,7 @@
         </is>
       </c>
       <c r="D680">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="681">
@@ -12641,7 +12641,7 @@
         </is>
       </c>
       <c r="D682">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683">
@@ -12677,7 +12677,7 @@
         </is>
       </c>
       <c r="D684">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
@@ -12893,7 +12893,7 @@
         </is>
       </c>
       <c r="D696">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697">
@@ -12983,7 +12983,7 @@
         </is>
       </c>
       <c r="D701">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
@@ -13001,7 +13001,7 @@
         </is>
       </c>
       <c r="D702">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703">
@@ -13667,7 +13667,7 @@
         </is>
       </c>
       <c r="D739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740">
@@ -14531,7 +14531,7 @@
         </is>
       </c>
       <c r="D787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="D792">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793">
@@ -14657,7 +14657,7 @@
         </is>
       </c>
       <c r="D794">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795">
@@ -14729,7 +14729,7 @@
         </is>
       </c>
       <c r="D798">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="799">
@@ -14783,7 +14783,7 @@
         </is>
       </c>
       <c r="D801">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="802">
@@ -14855,7 +14855,7 @@
         </is>
       </c>
       <c r="D805">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="806">
@@ -14873,7 +14873,7 @@
         </is>
       </c>
       <c r="D806">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="807">
@@ -14891,7 +14891,7 @@
         </is>
       </c>
       <c r="D807">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="808">
@@ -14927,7 +14927,7 @@
         </is>
       </c>
       <c r="D809">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="810">
@@ -14981,7 +14981,7 @@
         </is>
       </c>
       <c r="D812">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="813">
@@ -15053,7 +15053,7 @@
         </is>
       </c>
       <c r="D816">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="817">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="D817">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="818">
@@ -15089,7 +15089,7 @@
         </is>
       </c>
       <c r="D818">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="819">
@@ -15125,7 +15125,7 @@
         </is>
       </c>
       <c r="D820">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="821">
@@ -15143,7 +15143,7 @@
         </is>
       </c>
       <c r="D821">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="822">
@@ -15269,7 +15269,7 @@
         </is>
       </c>
       <c r="D828">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="829">
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D829">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="830">
@@ -15305,7 +15305,7 @@
         </is>
       </c>
       <c r="D830">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="831">
@@ -15359,7 +15359,7 @@
         </is>
       </c>
       <c r="D833">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="834">
@@ -15413,7 +15413,7 @@
         </is>
       </c>
       <c r="D836">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837">
@@ -15431,7 +15431,7 @@
         </is>
       </c>
       <c r="D837">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838">
@@ -15467,7 +15467,7 @@
         </is>
       </c>
       <c r="D839">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="840">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="D842">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="843">
@@ -15611,7 +15611,7 @@
         </is>
       </c>
       <c r="D847">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="848">
@@ -15629,7 +15629,7 @@
         </is>
       </c>
       <c r="D848">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="849">
@@ -15647,7 +15647,7 @@
         </is>
       </c>
       <c r="D849">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="850">
@@ -15665,7 +15665,7 @@
         </is>
       </c>
       <c r="D850">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="851">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="D867">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868">
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D869">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870">
@@ -16331,7 +16331,7 @@
         </is>
       </c>
       <c r="D887">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="D892">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="893">
@@ -16457,7 +16457,7 @@
         </is>
       </c>
       <c r="D894">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895">
@@ -16493,7 +16493,7 @@
         </is>
       </c>
       <c r="D896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897">
@@ -16817,7 +16817,7 @@
         </is>
       </c>
       <c r="D914">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="D917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918">
@@ -16889,7 +16889,7 @@
         </is>
       </c>
       <c r="D918">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919">
@@ -16961,7 +16961,7 @@
         </is>
       </c>
       <c r="D922">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923">
@@ -16997,7 +16997,7 @@
         </is>
       </c>
       <c r="D924">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="925">
@@ -17051,7 +17051,7 @@
         </is>
       </c>
       <c r="D927">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="928">
@@ -17105,7 +17105,7 @@
         </is>
       </c>
       <c r="D930">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931">
@@ -17123,7 +17123,7 @@
         </is>
       </c>
       <c r="D931">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932">
@@ -17177,7 +17177,7 @@
         </is>
       </c>
       <c r="D934">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935">
@@ -17195,7 +17195,7 @@
         </is>
       </c>
       <c r="D935">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936">
@@ -17249,7 +17249,7 @@
         </is>
       </c>
       <c r="D938">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="939">
@@ -17303,7 +17303,7 @@
         </is>
       </c>
       <c r="D941">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="942">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="D942">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="943">
@@ -17375,7 +17375,7 @@
         </is>
       </c>
       <c r="D945">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="946">
@@ -17411,7 +17411,7 @@
         </is>
       </c>
       <c r="D947">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="948">
@@ -17573,7 +17573,7 @@
         </is>
       </c>
       <c r="D956">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="957">
@@ -17591,7 +17591,7 @@
         </is>
       </c>
       <c r="D957">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="958">
@@ -17609,7 +17609,7 @@
         </is>
       </c>
       <c r="D958">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959">
@@ -17645,7 +17645,7 @@
         </is>
       </c>
       <c r="D960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961">
@@ -17717,7 +17717,7 @@
         </is>
       </c>
       <c r="D964">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965">
@@ -18563,7 +18563,7 @@
         </is>
       </c>
       <c r="D1011">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012">
@@ -19211,7 +19211,7 @@
         </is>
       </c>
       <c r="D1047">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048">
@@ -19229,7 +19229,7 @@
         </is>
       </c>
       <c r="D1048">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1049">
@@ -19283,7 +19283,7 @@
         </is>
       </c>
       <c r="D1051">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052">
@@ -19301,7 +19301,7 @@
         </is>
       </c>
       <c r="D1052">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1053">
@@ -19319,7 +19319,7 @@
         </is>
       </c>
       <c r="D1053">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1054">
@@ -19337,7 +19337,7 @@
         </is>
       </c>
       <c r="D1054">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1055">
@@ -19355,7 +19355,7 @@
         </is>
       </c>
       <c r="D1055">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1056">
@@ -19391,7 +19391,7 @@
         </is>
       </c>
       <c r="D1057">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1058">
@@ -19409,7 +19409,7 @@
         </is>
       </c>
       <c r="D1058">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1059">
@@ -19427,7 +19427,7 @@
         </is>
       </c>
       <c r="D1059">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1060">
@@ -19463,7 +19463,7 @@
         </is>
       </c>
       <c r="D1061">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1062">
@@ -19481,7 +19481,7 @@
         </is>
       </c>
       <c r="D1062">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1063">
@@ -19535,7 +19535,7 @@
         </is>
       </c>
       <c r="D1065">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1066">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="D1067">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1068">
@@ -19643,7 +19643,7 @@
         </is>
       </c>
       <c r="D1071">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1072">
@@ -19661,7 +19661,7 @@
         </is>
       </c>
       <c r="D1072">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1073">
@@ -19679,7 +19679,7 @@
         </is>
       </c>
       <c r="D1073">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1074">
@@ -19733,7 +19733,7 @@
         </is>
       </c>
       <c r="D1076">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1077">
@@ -19751,7 +19751,7 @@
         </is>
       </c>
       <c r="D1077">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1078">
@@ -19805,7 +19805,7 @@
         </is>
       </c>
       <c r="D1080">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1081">
@@ -19823,7 +19823,7 @@
         </is>
       </c>
       <c r="D1081">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1082">
@@ -19841,7 +19841,7 @@
         </is>
       </c>
       <c r="D1082">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1083">
@@ -19859,7 +19859,7 @@
         </is>
       </c>
       <c r="D1083">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="D1084">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085">
@@ -19913,7 +19913,7 @@
         </is>
       </c>
       <c r="D1086">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1087">
@@ -20093,7 +20093,7 @@
         </is>
       </c>
       <c r="D1096">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097">
@@ -21083,7 +21083,7 @@
         </is>
       </c>
       <c r="D1151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1152">
@@ -21173,7 +21173,7 @@
         </is>
       </c>
       <c r="D1156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157">
@@ -21623,7 +21623,7 @@
         </is>
       </c>
       <c r="D1181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182">
@@ -21659,7 +21659,7 @@
         </is>
       </c>
       <c r="D1183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184">
@@ -21677,7 +21677,7 @@
         </is>
       </c>
       <c r="D1184">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1185">
@@ -21713,7 +21713,7 @@
         </is>
       </c>
       <c r="D1186">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187">
@@ -21803,7 +21803,7 @@
         </is>
       </c>
       <c r="D1191">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="D1192">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1193">
@@ -21911,7 +21911,7 @@
         </is>
       </c>
       <c r="D1197">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1198">
@@ -21947,7 +21947,7 @@
         </is>
       </c>
       <c r="D1199">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1200">
@@ -21965,7 +21965,7 @@
         </is>
       </c>
       <c r="D1200">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1201">
@@ -22019,7 +22019,7 @@
         </is>
       </c>
       <c r="D1203">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1204">
@@ -22145,7 +22145,7 @@
         </is>
       </c>
       <c r="D1210">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1211">
@@ -22163,7 +22163,7 @@
         </is>
       </c>
       <c r="D1211">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1212">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="D1217">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1218">
@@ -22343,7 +22343,7 @@
         </is>
       </c>
       <c r="D1221">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1222">
@@ -22361,7 +22361,7 @@
         </is>
       </c>
       <c r="D1222">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1223">
@@ -22415,7 +22415,7 @@
         </is>
       </c>
       <c r="D1225">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1226">
@@ -22505,7 +22505,7 @@
         </is>
       </c>
       <c r="D1230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1231">
@@ -22631,7 +22631,7 @@
         </is>
       </c>
       <c r="D1237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1238">
@@ -22757,7 +22757,7 @@
         </is>
       </c>
       <c r="D1244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245">
@@ -22793,7 +22793,7 @@
         </is>
       </c>
       <c r="D1246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1247">
@@ -23837,7 +23837,7 @@
         </is>
       </c>
       <c r="D1304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1305">
@@ -23855,7 +23855,7 @@
         </is>
       </c>
       <c r="D1305">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1306">
@@ -23873,7 +23873,7 @@
         </is>
       </c>
       <c r="D1306">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1307">
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D1309">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1310">
@@ -23945,7 +23945,7 @@
         </is>
       </c>
       <c r="D1310">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1311">
@@ -23963,7 +23963,7 @@
         </is>
       </c>
       <c r="D1311">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1312">
@@ -23981,7 +23981,7 @@
         </is>
       </c>
       <c r="D1312">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1313">
@@ -23999,7 +23999,7 @@
         </is>
       </c>
       <c r="D1313">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1314">
@@ -24017,7 +24017,7 @@
         </is>
       </c>
       <c r="D1314">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1315">
@@ -24035,7 +24035,7 @@
         </is>
       </c>
       <c r="D1315">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1316">
@@ -24053,7 +24053,7 @@
         </is>
       </c>
       <c r="D1316">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1317">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="D1317">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1318">
@@ -24089,7 +24089,7 @@
         </is>
       </c>
       <c r="D1318">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1319">
@@ -24107,7 +24107,7 @@
         </is>
       </c>
       <c r="D1319">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1320">
@@ -24143,7 +24143,7 @@
         </is>
       </c>
       <c r="D1321">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1322">
@@ -24161,7 +24161,7 @@
         </is>
       </c>
       <c r="D1322">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1323">
@@ -24179,7 +24179,7 @@
         </is>
       </c>
       <c r="D1323">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1324">
@@ -24197,7 +24197,7 @@
         </is>
       </c>
       <c r="D1324">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1325">
@@ -24215,7 +24215,7 @@
         </is>
       </c>
       <c r="D1325">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1326">
@@ -24233,7 +24233,7 @@
         </is>
       </c>
       <c r="D1326">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1327">
@@ -24251,7 +24251,7 @@
         </is>
       </c>
       <c r="D1327">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="1328">
@@ -24269,7 +24269,7 @@
         </is>
       </c>
       <c r="D1328">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1329">
@@ -24287,7 +24287,7 @@
         </is>
       </c>
       <c r="D1329">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="1330">
@@ -24305,7 +24305,7 @@
         </is>
       </c>
       <c r="D1330">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1331">
@@ -24323,7 +24323,7 @@
         </is>
       </c>
       <c r="D1331">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1332">
@@ -24341,7 +24341,7 @@
         </is>
       </c>
       <c r="D1332">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1333">
@@ -24359,7 +24359,7 @@
         </is>
       </c>
       <c r="D1333">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1334">
@@ -24377,7 +24377,7 @@
         </is>
       </c>
       <c r="D1334">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1335">
@@ -24395,7 +24395,7 @@
         </is>
       </c>
       <c r="D1335">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1336">
@@ -24431,7 +24431,7 @@
         </is>
       </c>
       <c r="D1337">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="1338">
@@ -24449,7 +24449,7 @@
         </is>
       </c>
       <c r="D1338">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1339">
@@ -24467,7 +24467,7 @@
         </is>
       </c>
       <c r="D1339">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1340">
@@ -24485,7 +24485,7 @@
         </is>
       </c>
       <c r="D1340">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1341">
@@ -24503,7 +24503,7 @@
         </is>
       </c>
       <c r="D1341">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1342">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="D1342">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1343">
@@ -24539,7 +24539,7 @@
         </is>
       </c>
       <c r="D1343">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1344">
@@ -24557,7 +24557,7 @@
         </is>
       </c>
       <c r="D1344">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1345">
@@ -24575,7 +24575,7 @@
         </is>
       </c>
       <c r="D1345">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1346">
@@ -24593,7 +24593,7 @@
         </is>
       </c>
       <c r="D1346">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1347">
@@ -24629,7 +24629,7 @@
         </is>
       </c>
       <c r="D1348">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1349">
@@ -24665,7 +24665,7 @@
         </is>
       </c>
       <c r="D1350">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1351">
@@ -24683,7 +24683,7 @@
         </is>
       </c>
       <c r="D1351">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1352">
@@ -24701,7 +24701,7 @@
         </is>
       </c>
       <c r="D1352">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1353">
@@ -24719,7 +24719,7 @@
         </is>
       </c>
       <c r="D1353">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1354">
@@ -24755,7 +24755,7 @@
         </is>
       </c>
       <c r="D1355">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1356">
@@ -24773,7 +24773,7 @@
         </is>
       </c>
       <c r="D1356">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1357">
@@ -24791,7 +24791,7 @@
         </is>
       </c>
       <c r="D1357">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1358">
@@ -24809,7 +24809,7 @@
         </is>
       </c>
       <c r="D1358">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1359">
@@ -24827,7 +24827,7 @@
         </is>
       </c>
       <c r="D1359">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1360">
@@ -24863,7 +24863,7 @@
         </is>
       </c>
       <c r="D1361">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1362">
@@ -24899,7 +24899,7 @@
         </is>
       </c>
       <c r="D1363">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1364">
@@ -24917,7 +24917,7 @@
         </is>
       </c>
       <c r="D1364">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1365">
@@ -24953,7 +24953,7 @@
         </is>
       </c>
       <c r="D1366">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1367">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="D1367">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1368">
@@ -24989,7 +24989,7 @@
         </is>
       </c>
       <c r="D1368">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1369">
@@ -25007,7 +25007,7 @@
         </is>
       </c>
       <c r="D1369">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1370">
@@ -25025,7 +25025,7 @@
         </is>
       </c>
       <c r="D1370">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1371">
@@ -25043,7 +25043,7 @@
         </is>
       </c>
       <c r="D1371">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1372">
@@ -25097,7 +25097,7 @@
         </is>
       </c>
       <c r="D1374">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1375">
@@ -25133,7 +25133,7 @@
         </is>
       </c>
       <c r="D1376">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1377">
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="D1377">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1378">
@@ -25169,7 +25169,7 @@
         </is>
       </c>
       <c r="D1378">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1379">
@@ -25187,7 +25187,7 @@
         </is>
       </c>
       <c r="D1379">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1380">
@@ -25205,7 +25205,7 @@
         </is>
       </c>
       <c r="D1380">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1381">
@@ -25223,7 +25223,7 @@
         </is>
       </c>
       <c r="D1381">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1382">
@@ -25259,7 +25259,7 @@
         </is>
       </c>
       <c r="D1383">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1384">
@@ -25277,7 +25277,7 @@
         </is>
       </c>
       <c r="D1384">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1385">
@@ -25295,7 +25295,7 @@
         </is>
       </c>
       <c r="D1385">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1386">
@@ -25313,7 +25313,7 @@
         </is>
       </c>
       <c r="D1386">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1387">
@@ -25349,7 +25349,7 @@
         </is>
       </c>
       <c r="D1388">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1389">
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D1389">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1390">
@@ -25457,7 +25457,7 @@
         </is>
       </c>
       <c r="D1394">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1395">
@@ -25475,7 +25475,7 @@
         </is>
       </c>
       <c r="D1395">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1396">
@@ -25529,7 +25529,7 @@
         </is>
       </c>
       <c r="D1398">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1399">
@@ -25547,7 +25547,7 @@
         </is>
       </c>
       <c r="D1399">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1400">
@@ -25673,7 +25673,7 @@
         </is>
       </c>
       <c r="D1406">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1407">
@@ -25691,7 +25691,7 @@
         </is>
       </c>
       <c r="D1407">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1408">
@@ -25709,7 +25709,7 @@
         </is>
       </c>
       <c r="D1408">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1409">
@@ -25727,7 +25727,7 @@
         </is>
       </c>
       <c r="D1409">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1410">
@@ -25763,7 +25763,7 @@
         </is>
       </c>
       <c r="D1411">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1412">
@@ -25817,7 +25817,7 @@
         </is>
       </c>
       <c r="D1414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1415">
@@ -25961,7 +25961,7 @@
         </is>
       </c>
       <c r="D1422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1423">
@@ -25997,7 +25997,7 @@
         </is>
       </c>
       <c r="D1424">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1425">
@@ -26051,7 +26051,7 @@
         </is>
       </c>
       <c r="D1427">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1428">
@@ -26069,7 +26069,7 @@
         </is>
       </c>
       <c r="D1428">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1429">
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D1429">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1430">
@@ -26123,7 +26123,7 @@
         </is>
       </c>
       <c r="D1431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1432">
@@ -26141,7 +26141,7 @@
         </is>
       </c>
       <c r="D1432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1433">
@@ -26213,7 +26213,7 @@
         </is>
       </c>
       <c r="D1436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1437">
@@ -26267,7 +26267,7 @@
         </is>
       </c>
       <c r="D1439">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1440">
@@ -26285,7 +26285,7 @@
         </is>
       </c>
       <c r="D1440">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1441">
@@ -26303,7 +26303,7 @@
         </is>
       </c>
       <c r="D1441">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1442">
@@ -26339,7 +26339,7 @@
         </is>
       </c>
       <c r="D1443">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1444">
@@ -26357,7 +26357,7 @@
         </is>
       </c>
       <c r="D1444">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1445">
@@ -26393,7 +26393,7 @@
         </is>
       </c>
       <c r="D1446">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1447">
@@ -26411,7 +26411,7 @@
         </is>
       </c>
       <c r="D1447">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1448">
@@ -26447,7 +26447,7 @@
         </is>
       </c>
       <c r="D1449">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1450">
@@ -26465,7 +26465,7 @@
         </is>
       </c>
       <c r="D1450">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1451">
@@ -26483,7 +26483,7 @@
         </is>
       </c>
       <c r="D1451">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1452">
@@ -26501,7 +26501,7 @@
         </is>
       </c>
       <c r="D1452">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1453">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="D1453">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1454">
@@ -26537,7 +26537,7 @@
         </is>
       </c>
       <c r="D1454">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1455">
@@ -26555,7 +26555,7 @@
         </is>
       </c>
       <c r="D1455">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1456">
@@ -26573,7 +26573,7 @@
         </is>
       </c>
       <c r="D1456">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1457">
@@ -26591,7 +26591,7 @@
         </is>
       </c>
       <c r="D1457">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1458">
@@ -26609,7 +26609,7 @@
         </is>
       </c>
       <c r="D1458">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1459">
@@ -26627,7 +26627,7 @@
         </is>
       </c>
       <c r="D1459">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1460">
@@ -26663,7 +26663,7 @@
         </is>
       </c>
       <c r="D1461">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1462">
@@ -26681,7 +26681,7 @@
         </is>
       </c>
       <c r="D1462">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1463">
@@ -26699,7 +26699,7 @@
         </is>
       </c>
       <c r="D1463">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1464">
@@ -26717,7 +26717,7 @@
         </is>
       </c>
       <c r="D1464">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1465">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="D1465">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1466">
@@ -26753,7 +26753,7 @@
         </is>
       </c>
       <c r="D1466">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1467">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="D1467">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1468">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="D1468">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1469">
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D1469">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1470">
@@ -26825,7 +26825,7 @@
         </is>
       </c>
       <c r="D1470">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1471">
@@ -26843,7 +26843,7 @@
         </is>
       </c>
       <c r="D1471">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1472">
@@ -26861,7 +26861,7 @@
         </is>
       </c>
       <c r="D1472">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1473">
@@ -26879,7 +26879,7 @@
         </is>
       </c>
       <c r="D1473">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1474">
@@ -26897,7 +26897,7 @@
         </is>
       </c>
       <c r="D1474">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1475">
@@ -26915,7 +26915,7 @@
         </is>
       </c>
       <c r="D1475">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1476">
@@ -26933,7 +26933,7 @@
         </is>
       </c>
       <c r="D1476">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1477">
@@ -26951,7 +26951,7 @@
         </is>
       </c>
       <c r="D1477">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1478">
@@ -26969,7 +26969,7 @@
         </is>
       </c>
       <c r="D1478">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1479">
@@ -26987,7 +26987,7 @@
         </is>
       </c>
       <c r="D1479">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1480">
@@ -27023,7 +27023,7 @@
         </is>
       </c>
       <c r="D1481">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1482">
@@ -27041,7 +27041,7 @@
         </is>
       </c>
       <c r="D1482">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1483">
@@ -27077,7 +27077,7 @@
         </is>
       </c>
       <c r="D1484">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1485">
@@ -27095,7 +27095,7 @@
         </is>
       </c>
       <c r="D1485">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1486">
@@ -27131,7 +27131,7 @@
         </is>
       </c>
       <c r="D1487">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1488">
@@ -27149,7 +27149,7 @@
         </is>
       </c>
       <c r="D1488">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1489">
@@ -27167,7 +27167,7 @@
         </is>
       </c>
       <c r="D1489">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1490">
@@ -27185,7 +27185,7 @@
         </is>
       </c>
       <c r="D1490">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1491">
@@ -27203,7 +27203,7 @@
         </is>
       </c>
       <c r="D1491">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1492">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="D1492">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1493">
@@ -27257,7 +27257,7 @@
         </is>
       </c>
       <c r="D1494">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1495">
@@ -27275,7 +27275,7 @@
         </is>
       </c>
       <c r="D1495">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1496">
@@ -27293,7 +27293,7 @@
         </is>
       </c>
       <c r="D1496">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1497">
@@ -27347,7 +27347,7 @@
         </is>
       </c>
       <c r="D1499">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1500">
@@ -27365,7 +27365,7 @@
         </is>
       </c>
       <c r="D1500">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1501">
@@ -27383,7 +27383,7 @@
         </is>
       </c>
       <c r="D1501">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1502">
@@ -27419,7 +27419,7 @@
         </is>
       </c>
       <c r="D1503">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1504">
@@ -27437,7 +27437,7 @@
         </is>
       </c>
       <c r="D1504">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1505">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="D1505">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1506">
@@ -27473,7 +27473,7 @@
         </is>
       </c>
       <c r="D1506">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1507">
@@ -27509,7 +27509,7 @@
         </is>
       </c>
       <c r="D1508">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1509">
@@ -27779,7 +27779,7 @@
         </is>
       </c>
       <c r="D1523">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1524">
@@ -27815,7 +27815,7 @@
         </is>
       </c>
       <c r="D1525">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1526">
@@ -27851,7 +27851,7 @@
         </is>
       </c>
       <c r="D1527">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1528">
@@ -27923,7 +27923,7 @@
         </is>
       </c>
       <c r="D1531">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1532">
@@ -27941,7 +27941,7 @@
         </is>
       </c>
       <c r="D1532">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1533">
@@ -27995,7 +27995,7 @@
         </is>
       </c>
       <c r="D1535">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1536">
@@ -28049,7 +28049,7 @@
         </is>
       </c>
       <c r="D1538">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1539">
@@ -28121,7 +28121,7 @@
         </is>
       </c>
       <c r="D1542">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1543">
@@ -28283,7 +28283,7 @@
         </is>
       </c>
       <c r="D1551">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1552">
@@ -28319,7 +28319,7 @@
         </is>
       </c>
       <c r="D1553">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1554">
@@ -28337,7 +28337,7 @@
         </is>
       </c>
       <c r="D1554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1555">
@@ -28391,7 +28391,7 @@
         </is>
       </c>
       <c r="D1557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1558">
@@ -28427,7 +28427,7 @@
         </is>
       </c>
       <c r="D1559">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1560">
@@ -28553,7 +28553,7 @@
         </is>
       </c>
       <c r="D1566">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1567">
@@ -28571,7 +28571,7 @@
         </is>
       </c>
       <c r="D1567">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1568">
@@ -28589,7 +28589,7 @@
         </is>
       </c>
       <c r="D1568">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1569">
@@ -28607,7 +28607,7 @@
         </is>
       </c>
       <c r="D1569">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1570">
@@ -28643,7 +28643,7 @@
         </is>
       </c>
       <c r="D1571">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1572">
@@ -28661,7 +28661,7 @@
         </is>
       </c>
       <c r="D1572">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1573">
@@ -28679,7 +28679,7 @@
         </is>
       </c>
       <c r="D1573">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1574">
@@ -28697,7 +28697,7 @@
         </is>
       </c>
       <c r="D1574">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1575">
@@ -28715,7 +28715,7 @@
         </is>
       </c>
       <c r="D1575">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1576">
@@ -28733,7 +28733,7 @@
         </is>
       </c>
       <c r="D1576">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1577">
@@ -28751,7 +28751,7 @@
         </is>
       </c>
       <c r="D1577">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1578">
@@ -28769,7 +28769,7 @@
         </is>
       </c>
       <c r="D1578">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1579">
@@ -28805,7 +28805,7 @@
         </is>
       </c>
       <c r="D1580">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1581">
@@ -28823,7 +28823,7 @@
         </is>
       </c>
       <c r="D1581">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1582">
@@ -28841,7 +28841,7 @@
         </is>
       </c>
       <c r="D1582">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1583">
@@ -28859,7 +28859,7 @@
         </is>
       </c>
       <c r="D1583">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1584">
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="D1584">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1585">
@@ -28895,7 +28895,7 @@
         </is>
       </c>
       <c r="D1585">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1586">
@@ -28913,7 +28913,7 @@
         </is>
       </c>
       <c r="D1586">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1587">
@@ -28931,7 +28931,7 @@
         </is>
       </c>
       <c r="D1587">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1588">
@@ -28949,7 +28949,7 @@
         </is>
       </c>
       <c r="D1588">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1589">
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D1589">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1590">
@@ -28985,7 +28985,7 @@
         </is>
       </c>
       <c r="D1590">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1591">
@@ -29021,7 +29021,7 @@
         </is>
       </c>
       <c r="D1592">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1593">
@@ -29039,7 +29039,7 @@
         </is>
       </c>
       <c r="D1593">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1594">
@@ -29057,7 +29057,7 @@
         </is>
       </c>
       <c r="D1594">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1595">
@@ -29093,7 +29093,7 @@
         </is>
       </c>
       <c r="D1596">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1597">
@@ -29129,7 +29129,7 @@
         </is>
       </c>
       <c r="D1598">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1599">
@@ -29147,7 +29147,7 @@
         </is>
       </c>
       <c r="D1599">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1600">
@@ -29183,7 +29183,7 @@
         </is>
       </c>
       <c r="D1601">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1602">
@@ -29201,7 +29201,7 @@
         </is>
       </c>
       <c r="D1602">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1603">
@@ -29237,7 +29237,7 @@
         </is>
       </c>
       <c r="D1604">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1605">
@@ -29255,7 +29255,7 @@
         </is>
       </c>
       <c r="D1605">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1606">
@@ -29291,7 +29291,7 @@
         </is>
       </c>
       <c r="D1607">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1608">
@@ -29309,7 +29309,7 @@
         </is>
       </c>
       <c r="D1608">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1609">
@@ -29327,7 +29327,7 @@
         </is>
       </c>
       <c r="D1609">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1610">
@@ -29399,7 +29399,7 @@
         </is>
       </c>
       <c r="D1613">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1614">
@@ -29435,7 +29435,7 @@
         </is>
       </c>
       <c r="D1615">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1616">
@@ -29453,7 +29453,7 @@
         </is>
       </c>
       <c r="D1616">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1617">
@@ -29579,7 +29579,7 @@
         </is>
       </c>
       <c r="D1623">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1624">
@@ -29597,7 +29597,7 @@
         </is>
       </c>
       <c r="D1624">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1625">
@@ -29651,7 +29651,7 @@
         </is>
       </c>
       <c r="D1627">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1628">
@@ -30101,7 +30101,7 @@
         </is>
       </c>
       <c r="D1652">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1653">
@@ -30659,7 +30659,7 @@
         </is>
       </c>
       <c r="D1683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1684">
@@ -30893,7 +30893,7 @@
         </is>
       </c>
       <c r="D1696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1697">
@@ -31019,7 +31019,7 @@
         </is>
       </c>
       <c r="D1703">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1704">
@@ -31037,7 +31037,7 @@
         </is>
       </c>
       <c r="D1704">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1705">
@@ -31109,7 +31109,7 @@
         </is>
       </c>
       <c r="D1708">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1709">
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D1709">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1710">
@@ -31163,7 +31163,7 @@
         </is>
       </c>
       <c r="D1711">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1712">
@@ -31181,7 +31181,7 @@
         </is>
       </c>
       <c r="D1712">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1713">
@@ -31199,7 +31199,7 @@
         </is>
       </c>
       <c r="D1713">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1714">
@@ -31235,7 +31235,7 @@
         </is>
       </c>
       <c r="D1715">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1716">
@@ -31271,7 +31271,7 @@
         </is>
       </c>
       <c r="D1717">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1718">
@@ -31289,7 +31289,7 @@
         </is>
       </c>
       <c r="D1718">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1719">
@@ -31307,7 +31307,7 @@
         </is>
       </c>
       <c r="D1719">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1720">
@@ -31325,7 +31325,7 @@
         </is>
       </c>
       <c r="D1720">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1721">
@@ -31343,7 +31343,7 @@
         </is>
       </c>
       <c r="D1721">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1722">
@@ -31397,7 +31397,7 @@
         </is>
       </c>
       <c r="D1724">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1725">
@@ -31451,7 +31451,7 @@
         </is>
       </c>
       <c r="D1727">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1728">
@@ -31487,7 +31487,7 @@
         </is>
       </c>
       <c r="D1729">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1730">
@@ -31505,7 +31505,7 @@
         </is>
       </c>
       <c r="D1730">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1731">
@@ -31523,7 +31523,7 @@
         </is>
       </c>
       <c r="D1731">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1732">
@@ -31541,7 +31541,7 @@
         </is>
       </c>
       <c r="D1732">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1733">
@@ -31559,7 +31559,7 @@
         </is>
       </c>
       <c r="D1733">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1734">
@@ -31775,7 +31775,7 @@
         </is>
       </c>
       <c r="D1745">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1746">
@@ -31937,7 +31937,7 @@
         </is>
       </c>
       <c r="D1754">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1755">
@@ -31973,7 +31973,7 @@
         </is>
       </c>
       <c r="D1756">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1757">
@@ -31991,7 +31991,7 @@
         </is>
       </c>
       <c r="D1757">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1758">
@@ -32009,7 +32009,7 @@
         </is>
       </c>
       <c r="D1758">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1759">
@@ -32027,7 +32027,7 @@
         </is>
       </c>
       <c r="D1759">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1760">
@@ -32045,7 +32045,7 @@
         </is>
       </c>
       <c r="D1760">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1761">
@@ -32081,7 +32081,7 @@
         </is>
       </c>
       <c r="D1762">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1763">
@@ -32189,7 +32189,7 @@
         </is>
       </c>
       <c r="D1768">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1769">
@@ -32243,7 +32243,7 @@
         </is>
       </c>
       <c r="D1771">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1772">
@@ -32531,7 +32531,7 @@
         </is>
       </c>
       <c r="D1787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1788">
@@ -33179,7 +33179,7 @@
         </is>
       </c>
       <c r="D1823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1824">
@@ -33233,7 +33233,7 @@
         </is>
       </c>
       <c r="D1826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1827">
@@ -33251,7 +33251,7 @@
         </is>
       </c>
       <c r="D1827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1828">
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D1829">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1830">
@@ -33323,7 +33323,7 @@
         </is>
       </c>
       <c r="D1831">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1832">
@@ -33341,7 +33341,7 @@
         </is>
       </c>
       <c r="D1832">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1833">
@@ -33359,7 +33359,7 @@
         </is>
       </c>
       <c r="D1833">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1834">
@@ -33413,7 +33413,7 @@
         </is>
       </c>
       <c r="D1836">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1837">
@@ -33431,7 +33431,7 @@
         </is>
       </c>
       <c r="D1837">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1838">
@@ -33449,7 +33449,7 @@
         </is>
       </c>
       <c r="D1838">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1839">
@@ -33467,7 +33467,7 @@
         </is>
       </c>
       <c r="D1839">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1840">
@@ -33485,7 +33485,7 @@
         </is>
       </c>
       <c r="D1840">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1841">
@@ -33503,7 +33503,7 @@
         </is>
       </c>
       <c r="D1841">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1842">
@@ -33521,7 +33521,7 @@
         </is>
       </c>
       <c r="D1842">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1843">
@@ -33539,7 +33539,7 @@
         </is>
       </c>
       <c r="D1843">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1844">
@@ -33593,7 +33593,7 @@
         </is>
       </c>
       <c r="D1846">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1847">
@@ -33629,7 +33629,7 @@
         </is>
       </c>
       <c r="D1848">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1849">
@@ -33647,7 +33647,7 @@
         </is>
       </c>
       <c r="D1849">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1850">
@@ -33665,7 +33665,7 @@
         </is>
       </c>
       <c r="D1850">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1851">
@@ -33755,7 +33755,7 @@
         </is>
       </c>
       <c r="D1855">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1856">
@@ -33773,7 +33773,7 @@
         </is>
       </c>
       <c r="D1856">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1857">
@@ -33809,7 +33809,7 @@
         </is>
       </c>
       <c r="D1858">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1859">
@@ -33827,7 +33827,7 @@
         </is>
       </c>
       <c r="D1859">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1860">
@@ -33845,7 +33845,7 @@
         </is>
       </c>
       <c r="D1860">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1861">
@@ -33863,7 +33863,7 @@
         </is>
       </c>
       <c r="D1861">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1862">
@@ -33917,7 +33917,7 @@
         </is>
       </c>
       <c r="D1864">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1865">
@@ -33935,7 +33935,7 @@
         </is>
       </c>
       <c r="D1865">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1866">
@@ -33971,7 +33971,7 @@
         </is>
       </c>
       <c r="D1867">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1868">
@@ -33989,7 +33989,7 @@
         </is>
       </c>
       <c r="D1868">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1869">
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D1869">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1870">
@@ -34025,7 +34025,7 @@
         </is>
       </c>
       <c r="D1870">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1871">
@@ -34061,7 +34061,7 @@
         </is>
       </c>
       <c r="D1872">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1873">
@@ -34097,7 +34097,7 @@
         </is>
       </c>
       <c r="D1874">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1875">
@@ -34133,7 +34133,7 @@
         </is>
       </c>
       <c r="D1876">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1877">
@@ -34205,7 +34205,7 @@
         </is>
       </c>
       <c r="D1880">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1881">
@@ -34223,7 +34223,7 @@
         </is>
       </c>
       <c r="D1881">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1882">
@@ -34331,7 +34331,7 @@
         </is>
       </c>
       <c r="D1887">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1888">
@@ -34367,7 +34367,7 @@
         </is>
       </c>
       <c r="D1889">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1890">
@@ -34421,7 +34421,7 @@
         </is>
       </c>
       <c r="D1892">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1893">
@@ -34439,7 +34439,7 @@
         </is>
       </c>
       <c r="D1893">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1894">
@@ -34547,7 +34547,7 @@
         </is>
       </c>
       <c r="D1899">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1900">
@@ -34637,7 +34637,7 @@
         </is>
       </c>
       <c r="D1904">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1905">
@@ -34673,7 +34673,7 @@
         </is>
       </c>
       <c r="D1906">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1907">
@@ -34943,7 +34943,7 @@
         </is>
       </c>
       <c r="D1921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1922">
@@ -35627,7 +35627,7 @@
         </is>
       </c>
       <c r="D1959">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1960">
@@ -35663,7 +35663,7 @@
         </is>
       </c>
       <c r="D1961">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1962">
@@ -35681,7 +35681,7 @@
         </is>
       </c>
       <c r="D1962">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1963">
@@ -35699,7 +35699,7 @@
         </is>
       </c>
       <c r="D1963">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1964">
@@ -35735,7 +35735,7 @@
         </is>
       </c>
       <c r="D1965">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1966">
@@ -35789,7 +35789,7 @@
         </is>
       </c>
       <c r="D1968">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1969">
@@ -35807,7 +35807,7 @@
         </is>
       </c>
       <c r="D1969">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1970">
@@ -35825,7 +35825,7 @@
         </is>
       </c>
       <c r="D1970">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1971">
@@ -35843,7 +35843,7 @@
         </is>
       </c>
       <c r="D1971">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1972">
@@ -35861,7 +35861,7 @@
         </is>
       </c>
       <c r="D1972">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1973">
@@ -35879,7 +35879,7 @@
         </is>
       </c>
       <c r="D1973">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1974">
@@ -35897,7 +35897,7 @@
         </is>
       </c>
       <c r="D1974">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1975">
@@ -35915,7 +35915,7 @@
         </is>
       </c>
       <c r="D1975">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1976">
@@ -35933,7 +35933,7 @@
         </is>
       </c>
       <c r="D1976">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1977">
@@ -35951,7 +35951,7 @@
         </is>
       </c>
       <c r="D1977">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1978">
@@ -35969,7 +35969,7 @@
         </is>
       </c>
       <c r="D1978">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1979">
@@ -36005,7 +36005,7 @@
         </is>
       </c>
       <c r="D1980">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1981">
@@ -36023,7 +36023,7 @@
         </is>
       </c>
       <c r="D1981">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1982">
@@ -36041,7 +36041,7 @@
         </is>
       </c>
       <c r="D1982">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1983">
@@ -36059,7 +36059,7 @@
         </is>
       </c>
       <c r="D1983">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1984">
@@ -36095,7 +36095,7 @@
         </is>
       </c>
       <c r="D1985">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1986">
@@ -36113,7 +36113,7 @@
         </is>
       </c>
       <c r="D1986">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1987">
@@ -36149,7 +36149,7 @@
         </is>
       </c>
       <c r="D1988">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1989">
@@ -36203,7 +36203,7 @@
         </is>
       </c>
       <c r="D1991">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1992">
@@ -36239,7 +36239,7 @@
         </is>
       </c>
       <c r="D1993">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1994">
@@ -36257,7 +36257,7 @@
         </is>
       </c>
       <c r="D1994">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1995">
@@ -36293,7 +36293,7 @@
         </is>
       </c>
       <c r="D1996">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1997">
@@ -36311,7 +36311,7 @@
         </is>
       </c>
       <c r="D1997">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1998">
@@ -36347,7 +36347,7 @@
         </is>
       </c>
       <c r="D1999">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2000">
@@ -36419,7 +36419,7 @@
         </is>
       </c>
       <c r="D2003">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2004">
@@ -36437,7 +36437,7 @@
         </is>
       </c>
       <c r="D2004">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2005">
@@ -36455,7 +36455,7 @@
         </is>
       </c>
       <c r="D2005">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2006">
@@ -36491,7 +36491,7 @@
         </is>
       </c>
       <c r="D2007">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2008">
@@ -36545,7 +36545,7 @@
         </is>
       </c>
       <c r="D2010">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2011">
@@ -36581,7 +36581,7 @@
         </is>
       </c>
       <c r="D2012">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2013">
@@ -36635,7 +36635,7 @@
         </is>
       </c>
       <c r="D2015">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2016">
@@ -36653,7 +36653,7 @@
         </is>
       </c>
       <c r="D2016">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2017">
@@ -36689,7 +36689,7 @@
         </is>
       </c>
       <c r="D2018">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2019">
@@ -36707,7 +36707,7 @@
         </is>
       </c>
       <c r="D2019">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2020">
@@ -36743,7 +36743,7 @@
         </is>
       </c>
       <c r="D2021">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2022">
@@ -36797,7 +36797,7 @@
         </is>
       </c>
       <c r="D2024">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2025">
@@ -36815,7 +36815,7 @@
         </is>
       </c>
       <c r="D2025">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2026">
@@ -36851,7 +36851,7 @@
         </is>
       </c>
       <c r="D2027">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2028">
@@ -36869,7 +36869,7 @@
         </is>
       </c>
       <c r="D2028">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2029">
@@ -36941,7 +36941,7 @@
         </is>
       </c>
       <c r="D2032">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2033">
@@ -36959,7 +36959,7 @@
         </is>
       </c>
       <c r="D2033">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2034">
@@ -37067,7 +37067,7 @@
         </is>
       </c>
       <c r="D2039">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2040">
@@ -37085,7 +37085,7 @@
         </is>
       </c>
       <c r="D2040">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2041">
@@ -37103,7 +37103,7 @@
         </is>
       </c>
       <c r="D2041">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2042">
@@ -37139,7 +37139,7 @@
         </is>
       </c>
       <c r="D2043">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2044">
@@ -37157,7 +37157,7 @@
         </is>
       </c>
       <c r="D2044">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2045">
@@ -37175,7 +37175,7 @@
         </is>
       </c>
       <c r="D2045">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2046">
@@ -37337,7 +37337,7 @@
         </is>
       </c>
       <c r="D2054">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2055">
@@ -37391,7 +37391,7 @@
         </is>
       </c>
       <c r="D2057">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2058">
@@ -37481,7 +37481,7 @@
         </is>
       </c>
       <c r="D2062">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2063">
@@ -37499,7 +37499,7 @@
         </is>
       </c>
       <c r="D2063">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2064">
@@ -37589,7 +37589,7 @@
         </is>
       </c>
       <c r="D2068">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2069">
@@ -37607,7 +37607,7 @@
         </is>
       </c>
       <c r="D2069">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2070">
@@ -37625,7 +37625,7 @@
         </is>
       </c>
       <c r="D2070">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2071">
@@ -37643,7 +37643,7 @@
         </is>
       </c>
       <c r="D2071">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2072">
@@ -37661,7 +37661,7 @@
         </is>
       </c>
       <c r="D2072">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2073">
@@ -37697,7 +37697,7 @@
         </is>
       </c>
       <c r="D2074">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2075">
@@ -37733,7 +37733,7 @@
         </is>
       </c>
       <c r="D2076">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2077">
@@ -37751,7 +37751,7 @@
         </is>
       </c>
       <c r="D2077">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2078">
@@ -37895,7 +37895,7 @@
         </is>
       </c>
       <c r="D2085">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2086">
@@ -37913,7 +37913,7 @@
         </is>
       </c>
       <c r="D2086">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2087">
@@ -37931,7 +37931,7 @@
         </is>
       </c>
       <c r="D2087">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2088">
@@ -37967,7 +37967,7 @@
         </is>
       </c>
       <c r="D2089">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2090">
@@ -38003,7 +38003,7 @@
         </is>
       </c>
       <c r="D2091">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2092">
@@ -38021,7 +38021,7 @@
         </is>
       </c>
       <c r="D2092">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2093">
@@ -38039,7 +38039,7 @@
         </is>
       </c>
       <c r="D2093">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2094">
@@ -38075,7 +38075,7 @@
         </is>
       </c>
       <c r="D2095">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2096">
@@ -38093,7 +38093,7 @@
         </is>
       </c>
       <c r="D2096">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2097">
@@ -38111,7 +38111,7 @@
         </is>
       </c>
       <c r="D2097">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2098">
@@ -38129,7 +38129,7 @@
         </is>
       </c>
       <c r="D2098">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2099">
@@ -38165,7 +38165,7 @@
         </is>
       </c>
       <c r="D2100">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2101">
@@ -38183,7 +38183,7 @@
         </is>
       </c>
       <c r="D2101">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2102">
@@ -38237,7 +38237,7 @@
         </is>
       </c>
       <c r="D2104">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2105">
@@ -38255,7 +38255,7 @@
         </is>
       </c>
       <c r="D2105">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2106">
@@ -38291,7 +38291,7 @@
         </is>
       </c>
       <c r="D2107">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2108">
@@ -38327,7 +38327,7 @@
         </is>
       </c>
       <c r="D2109">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2110">
@@ -38381,7 +38381,7 @@
         </is>
       </c>
       <c r="D2112">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2113">
@@ -38399,7 +38399,7 @@
         </is>
       </c>
       <c r="D2113">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2114">
@@ -38435,7 +38435,7 @@
         </is>
       </c>
       <c r="D2115">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2116">
@@ -38453,7 +38453,7 @@
         </is>
       </c>
       <c r="D2116">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2117">
@@ -38471,7 +38471,7 @@
         </is>
       </c>
       <c r="D2117">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2118">
@@ -38489,7 +38489,7 @@
         </is>
       </c>
       <c r="D2118">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2119">
@@ -38507,7 +38507,7 @@
         </is>
       </c>
       <c r="D2119">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2120">
@@ -38525,7 +38525,7 @@
         </is>
       </c>
       <c r="D2120">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2121">
@@ -38543,7 +38543,7 @@
         </is>
       </c>
       <c r="D2121">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2122">
@@ -38561,7 +38561,7 @@
         </is>
       </c>
       <c r="D2122">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2123">
@@ -38579,7 +38579,7 @@
         </is>
       </c>
       <c r="D2123">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2124">
@@ -38633,7 +38633,7 @@
         </is>
       </c>
       <c r="D2126">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2127">
@@ -38705,7 +38705,7 @@
         </is>
       </c>
       <c r="D2130">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2131">
@@ -38777,7 +38777,7 @@
         </is>
       </c>
       <c r="D2134">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2135">
@@ -38813,7 +38813,7 @@
         </is>
       </c>
       <c r="D2136">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2137">
@@ -38831,7 +38831,7 @@
         </is>
       </c>
       <c r="D2137">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2138">
@@ -38867,7 +38867,7 @@
         </is>
       </c>
       <c r="D2139">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2140">
@@ -38885,7 +38885,7 @@
         </is>
       </c>
       <c r="D2140">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2141">
@@ -38903,7 +38903,7 @@
         </is>
       </c>
       <c r="D2141">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2142">
@@ -38921,7 +38921,7 @@
         </is>
       </c>
       <c r="D2142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2143">
@@ -38975,7 +38975,7 @@
         </is>
       </c>
       <c r="D2145">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2146">
@@ -38993,7 +38993,7 @@
         </is>
       </c>
       <c r="D2146">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2147">
@@ -39011,7 +39011,7 @@
         </is>
       </c>
       <c r="D2147">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2148">
@@ -39029,7 +39029,7 @@
         </is>
       </c>
       <c r="D2148">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2149">
@@ -39047,7 +39047,7 @@
         </is>
       </c>
       <c r="D2149">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2150">
@@ -39065,7 +39065,7 @@
         </is>
       </c>
       <c r="D2150">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2151">
@@ -39083,7 +39083,7 @@
         </is>
       </c>
       <c r="D2151">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2152">
@@ -39173,7 +39173,7 @@
         </is>
       </c>
       <c r="D2156">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2157">
@@ -39209,7 +39209,7 @@
         </is>
       </c>
       <c r="D2158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2159">
@@ -39353,7 +39353,7 @@
         </is>
       </c>
       <c r="D2166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2167">
@@ -39443,7 +39443,7 @@
         </is>
       </c>
       <c r="D2171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2172">
@@ -39569,7 +39569,7 @@
         </is>
       </c>
       <c r="D2178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2179">
@@ -39641,7 +39641,7 @@
         </is>
       </c>
       <c r="D2182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2183">
@@ -39731,7 +39731,7 @@
         </is>
       </c>
       <c r="D2187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2188">
@@ -39749,7 +39749,7 @@
         </is>
       </c>
       <c r="D2188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2189">
@@ -39857,7 +39857,7 @@
         </is>
       </c>
       <c r="D2194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2195">
@@ -39947,7 +39947,7 @@
         </is>
       </c>
       <c r="D2199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2200">
@@ -40091,7 +40091,7 @@
         </is>
       </c>
       <c r="D2207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2208">
@@ -40253,7 +40253,7 @@
         </is>
       </c>
       <c r="D2216">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2217">
@@ -40271,7 +40271,7 @@
         </is>
       </c>
       <c r="D2217">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2218">
@@ -40361,7 +40361,7 @@
         </is>
       </c>
       <c r="D2222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2223">
@@ -40379,7 +40379,7 @@
         </is>
       </c>
       <c r="D2223">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2224">
@@ -40469,7 +40469,7 @@
         </is>
       </c>
       <c r="D2228">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2229">
@@ -40505,7 +40505,7 @@
         </is>
       </c>
       <c r="D2230">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -40559,7 +40559,7 @@
         </is>
       </c>
       <c r="D2233">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2234">
@@ -40595,7 +40595,7 @@
         </is>
       </c>
       <c r="D2235">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2236">
@@ -40613,7 +40613,7 @@
         </is>
       </c>
       <c r="D2236">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2237">
@@ -40649,7 +40649,7 @@
         </is>
       </c>
       <c r="D2238">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2239">
@@ -40685,7 +40685,7 @@
         </is>
       </c>
       <c r="D2240">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2241">
@@ -40703,7 +40703,7 @@
         </is>
       </c>
       <c r="D2241">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2242">
@@ -40721,7 +40721,7 @@
         </is>
       </c>
       <c r="D2242">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2243">
@@ -40739,7 +40739,7 @@
         </is>
       </c>
       <c r="D2243">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2244">
@@ -40775,7 +40775,7 @@
         </is>
       </c>
       <c r="D2245">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2246">
@@ -40883,7 +40883,7 @@
         </is>
       </c>
       <c r="D2251">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2252">
@@ -41045,7 +41045,7 @@
         </is>
       </c>
       <c r="D2260">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2261">
@@ -41063,7 +41063,7 @@
         </is>
       </c>
       <c r="D2261">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2262">
@@ -41099,7 +41099,7 @@
         </is>
       </c>
       <c r="D2263">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2264">
@@ -41117,7 +41117,7 @@
         </is>
       </c>
       <c r="D2264">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2265">
@@ -41279,7 +41279,7 @@
         </is>
       </c>
       <c r="D2273">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2274">
@@ -41369,7 +41369,7 @@
         </is>
       </c>
       <c r="D2278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2279">
@@ -42737,7 +42737,7 @@
         </is>
       </c>
       <c r="D2354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2355">
@@ -42773,7 +42773,7 @@
         </is>
       </c>
       <c r="D2356">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2357">
@@ -42845,7 +42845,7 @@
         </is>
       </c>
       <c r="D2360">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2361">
@@ -42863,7 +42863,7 @@
         </is>
       </c>
       <c r="D2361">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2362">
@@ -42881,7 +42881,7 @@
         </is>
       </c>
       <c r="D2362">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2363">
@@ -42899,7 +42899,7 @@
         </is>
       </c>
       <c r="D2363">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2364">
@@ -42917,7 +42917,7 @@
         </is>
       </c>
       <c r="D2364">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2365">
@@ -42935,7 +42935,7 @@
         </is>
       </c>
       <c r="D2365">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2366">
@@ -42953,7 +42953,7 @@
         </is>
       </c>
       <c r="D2366">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2367">
@@ -42971,7 +42971,7 @@
         </is>
       </c>
       <c r="D2367">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2368">
@@ -42989,7 +42989,7 @@
         </is>
       </c>
       <c r="D2368">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2369">
@@ -43061,7 +43061,7 @@
         </is>
       </c>
       <c r="D2372">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2373">
@@ -43097,7 +43097,7 @@
         </is>
       </c>
       <c r="D2374">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2375">
@@ -43133,7 +43133,7 @@
         </is>
       </c>
       <c r="D2376">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2377">
@@ -43151,7 +43151,7 @@
         </is>
       </c>
       <c r="D2377">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2378">
@@ -43169,7 +43169,7 @@
         </is>
       </c>
       <c r="D2378">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2379">
@@ -43205,7 +43205,7 @@
         </is>
       </c>
       <c r="D2380">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2381">
@@ -43223,7 +43223,7 @@
         </is>
       </c>
       <c r="D2381">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2382">
@@ -43259,7 +43259,7 @@
         </is>
       </c>
       <c r="D2383">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2384">
@@ -43277,7 +43277,7 @@
         </is>
       </c>
       <c r="D2384">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2385">
@@ -43421,7 +43421,7 @@
         </is>
       </c>
       <c r="D2392">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2393">
@@ -43457,7 +43457,7 @@
         </is>
       </c>
       <c r="D2394">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2395">
@@ -43529,7 +43529,7 @@
         </is>
       </c>
       <c r="D2398">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2399">
@@ -43637,7 +43637,7 @@
         </is>
       </c>
       <c r="D2404">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2405">
@@ -43853,7 +43853,7 @@
         </is>
       </c>
       <c r="D2416">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2417">
@@ -43961,7 +43961,7 @@
         </is>
       </c>
       <c r="D2422">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2423">
@@ -43979,7 +43979,7 @@
         </is>
       </c>
       <c r="D2423">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2424">
@@ -44141,7 +44141,7 @@
         </is>
       </c>
       <c r="D2432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2433">
@@ -44879,7 +44879,7 @@
         </is>
       </c>
       <c r="D2473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2474">
@@ -44897,7 +44897,7 @@
         </is>
       </c>
       <c r="D2474">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2475">
@@ -44933,7 +44933,7 @@
         </is>
       </c>
       <c r="D2476">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2477">
@@ -44951,7 +44951,7 @@
         </is>
       </c>
       <c r="D2477">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2478">
@@ -44969,7 +44969,7 @@
         </is>
       </c>
       <c r="D2478">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2479">
@@ -44987,7 +44987,7 @@
         </is>
       </c>
       <c r="D2479">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2480">
@@ -45005,7 +45005,7 @@
         </is>
       </c>
       <c r="D2480">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2481">
@@ -45023,7 +45023,7 @@
         </is>
       </c>
       <c r="D2481">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2482">
@@ -45041,7 +45041,7 @@
         </is>
       </c>
       <c r="D2482">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2483">
@@ -45059,7 +45059,7 @@
         </is>
       </c>
       <c r="D2483">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2484">
@@ -45077,7 +45077,7 @@
         </is>
       </c>
       <c r="D2484">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2485">
@@ -45095,7 +45095,7 @@
         </is>
       </c>
       <c r="D2485">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2486">
@@ -45113,7 +45113,7 @@
         </is>
       </c>
       <c r="D2486">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2487">
@@ -45149,7 +45149,7 @@
         </is>
       </c>
       <c r="D2488">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2489">
@@ -45167,7 +45167,7 @@
         </is>
       </c>
       <c r="D2489">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2490">
@@ -45185,7 +45185,7 @@
         </is>
       </c>
       <c r="D2490">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2491">
@@ -45203,7 +45203,7 @@
         </is>
       </c>
       <c r="D2491">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2492">
@@ -45221,7 +45221,7 @@
         </is>
       </c>
       <c r="D2492">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2493">
@@ -45239,7 +45239,7 @@
         </is>
       </c>
       <c r="D2493">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2494">
@@ -45257,7 +45257,7 @@
         </is>
       </c>
       <c r="D2494">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2495">
@@ -45275,7 +45275,7 @@
         </is>
       </c>
       <c r="D2495">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2496">
@@ -45293,7 +45293,7 @@
         </is>
       </c>
       <c r="D2496">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2497">
@@ -45311,7 +45311,7 @@
         </is>
       </c>
       <c r="D2497">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2498">
@@ -45347,7 +45347,7 @@
         </is>
       </c>
       <c r="D2499">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2500">
@@ -45383,7 +45383,7 @@
         </is>
       </c>
       <c r="D2501">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2502">
@@ -45401,7 +45401,7 @@
         </is>
       </c>
       <c r="D2502">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2503">
@@ -45419,7 +45419,7 @@
         </is>
       </c>
       <c r="D2503">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2504">
@@ -45437,7 +45437,7 @@
         </is>
       </c>
       <c r="D2504">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2505">
@@ -45455,7 +45455,7 @@
         </is>
       </c>
       <c r="D2505">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2506">
@@ -45473,7 +45473,7 @@
         </is>
       </c>
       <c r="D2506">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2507">
@@ -45491,7 +45491,7 @@
         </is>
       </c>
       <c r="D2507">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2508">
@@ -45509,7 +45509,7 @@
         </is>
       </c>
       <c r="D2508">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2509">
@@ -45527,7 +45527,7 @@
         </is>
       </c>
       <c r="D2509">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2510">
@@ -45563,7 +45563,7 @@
         </is>
       </c>
       <c r="D2511">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2512">
@@ -45581,7 +45581,7 @@
         </is>
       </c>
       <c r="D2512">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2513">
@@ -45599,7 +45599,7 @@
         </is>
       </c>
       <c r="D2513">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2514">
@@ -45635,7 +45635,7 @@
         </is>
       </c>
       <c r="D2515">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2516">
@@ -45653,7 +45653,7 @@
         </is>
       </c>
       <c r="D2516">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2517">
@@ -45671,7 +45671,7 @@
         </is>
       </c>
       <c r="D2517">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2518">
@@ -45689,7 +45689,7 @@
         </is>
       </c>
       <c r="D2518">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2519">
@@ -45707,7 +45707,7 @@
         </is>
       </c>
       <c r="D2519">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2520">
@@ -45725,7 +45725,7 @@
         </is>
       </c>
       <c r="D2520">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2521">
@@ -45761,7 +45761,7 @@
         </is>
       </c>
       <c r="D2522">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2523">
@@ -45797,7 +45797,7 @@
         </is>
       </c>
       <c r="D2524">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2525">
@@ -45815,7 +45815,7 @@
         </is>
       </c>
       <c r="D2525">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2526">
@@ -45833,7 +45833,7 @@
         </is>
       </c>
       <c r="D2526">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2527">
@@ -45869,7 +45869,7 @@
         </is>
       </c>
       <c r="D2528">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2529">
@@ -45905,7 +45905,7 @@
         </is>
       </c>
       <c r="D2530">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2531">
@@ -45923,7 +45923,7 @@
         </is>
       </c>
       <c r="D2531">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2532">
@@ -45941,7 +45941,7 @@
         </is>
       </c>
       <c r="D2532">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2533">
@@ -45959,7 +45959,7 @@
         </is>
       </c>
       <c r="D2533">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2534">
@@ -46049,7 +46049,7 @@
         </is>
       </c>
       <c r="D2538">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2539">
@@ -46175,7 +46175,7 @@
         </is>
       </c>
       <c r="D2545">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2546">
@@ -46193,7 +46193,7 @@
         </is>
       </c>
       <c r="D2546">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2547">
@@ -46211,7 +46211,7 @@
         </is>
       </c>
       <c r="D2547">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2548">
@@ -46229,7 +46229,7 @@
         </is>
       </c>
       <c r="D2548">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2549">
@@ -46265,7 +46265,7 @@
         </is>
       </c>
       <c r="D2550">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2551">
@@ -46283,7 +46283,7 @@
         </is>
       </c>
       <c r="D2551">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2552">
@@ -46301,7 +46301,7 @@
         </is>
       </c>
       <c r="D2552">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2553">
@@ -46337,7 +46337,7 @@
         </is>
       </c>
       <c r="D2554">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2555">
@@ -46355,7 +46355,7 @@
         </is>
       </c>
       <c r="D2555">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2556">
@@ -46445,7 +46445,7 @@
         </is>
       </c>
       <c r="D2560">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2561">
@@ -46463,7 +46463,7 @@
         </is>
       </c>
       <c r="D2561">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2562">
@@ -46571,7 +46571,7 @@
         </is>
       </c>
       <c r="D2567">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2568">
@@ -46589,7 +46589,7 @@
         </is>
       </c>
       <c r="D2568">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2569">
@@ -46661,7 +46661,7 @@
         </is>
       </c>
       <c r="D2572">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2573">
@@ -46679,7 +46679,7 @@
         </is>
       </c>
       <c r="D2573">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2574">
@@ -46697,7 +46697,7 @@
         </is>
       </c>
       <c r="D2574">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2575">
@@ -46841,7 +46841,7 @@
         </is>
       </c>
       <c r="D2582">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2583">
@@ -46859,7 +46859,7 @@
         </is>
       </c>
       <c r="D2583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2584">
@@ -46895,7 +46895,7 @@
         </is>
       </c>
       <c r="D2585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2586">
@@ -46913,7 +46913,7 @@
         </is>
       </c>
       <c r="D2586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2587">
@@ -46931,7 +46931,7 @@
         </is>
       </c>
       <c r="D2587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2588">
@@ -46949,7 +46949,7 @@
         </is>
       </c>
       <c r="D2588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2589">

--- a/data/02_admissions/admissions.xlsx
+++ b/data/02_admissions/admissions.xlsx
@@ -29705,7 +29705,7 @@
         </is>
       </c>
       <c r="D1630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1631">
